--- a/000-要件定義/WBS/0912/003-WBS.xlsx
+++ b/000-要件定義/WBS/0912/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\WBS\0912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA6D1F-826E-4652-A8AE-17B23473571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370EFB1D-3779-47F5-BC1F-9E00D45232C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="163">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -915,10 +915,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>80%</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ColorDTO</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -935,11 +931,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>85%</t>
+    <t>100%</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>60%</t>
+    <t>95%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2346,7 +2342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2909,30 +2905,150 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2960,107 +3076,95 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3068,15 +3172,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3086,12 +3193,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3104,92 +3205,113 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3200,137 +3322,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4192,10 +4191,10 @@
   <dimension ref="A1:BR334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AM37" sqref="AM37"/>
+      <selection pane="bottomRight" activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -4211,10 +4210,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="9.6">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="222" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="83" t="s">
@@ -4223,82 +4222,82 @@
       <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="E1" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="222">
+      <c r="F1" s="208">
         <v>45901</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="223"/>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="222">
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="208">
         <v>45931</v>
       </c>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="223"/>
-      <c r="AN1" s="223"/>
-      <c r="AO1" s="223"/>
-      <c r="AP1" s="223"/>
-      <c r="AQ1" s="223"/>
-      <c r="AR1" s="223"/>
-      <c r="AS1" s="223"/>
-      <c r="AT1" s="223"/>
-      <c r="AU1" s="223"/>
-      <c r="AV1" s="223"/>
-      <c r="AW1" s="223"/>
-      <c r="AX1" s="223"/>
-      <c r="AY1" s="223"/>
-      <c r="AZ1" s="223"/>
-      <c r="BA1" s="223"/>
-      <c r="BB1" s="223"/>
-      <c r="BC1" s="223"/>
-      <c r="BD1" s="223"/>
-      <c r="BE1" s="223"/>
-      <c r="BF1" s="223"/>
-      <c r="BG1" s="223"/>
-      <c r="BH1" s="223"/>
-      <c r="BI1" s="223"/>
-      <c r="BJ1" s="223"/>
-      <c r="BK1" s="223"/>
-      <c r="BL1" s="223"/>
-      <c r="BM1" s="223"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="209"/>
+      <c r="AO1" s="209"/>
+      <c r="AP1" s="209"/>
+      <c r="AQ1" s="209"/>
+      <c r="AR1" s="209"/>
+      <c r="AS1" s="209"/>
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="209"/>
+      <c r="AX1" s="209"/>
+      <c r="AY1" s="209"/>
+      <c r="AZ1" s="209"/>
+      <c r="BA1" s="209"/>
+      <c r="BB1" s="209"/>
+      <c r="BC1" s="209"/>
+      <c r="BD1" s="209"/>
+      <c r="BE1" s="209"/>
+      <c r="BF1" s="209"/>
+      <c r="BG1" s="209"/>
+      <c r="BH1" s="209"/>
+      <c r="BI1" s="209"/>
+      <c r="BJ1" s="209"/>
+      <c r="BK1" s="209"/>
+      <c r="BL1" s="209"/>
+      <c r="BM1" s="209"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="9.6">
-      <c r="A2" s="230"/>
-      <c r="B2" s="233"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="84"/>
       <c r="D2" s="88"/>
-      <c r="E2" s="236"/>
+      <c r="E2" s="226"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -4485,11 +4484,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="9.6">
-      <c r="A3" s="231"/>
-      <c r="B3" s="234"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="224"/>
       <c r="C3" s="84"/>
       <c r="D3" s="88"/>
-      <c r="E3" s="237"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4675,7 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="209">
+      <c r="A4" s="194">
         <v>1</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -4685,10 +4684,10 @@
       <c r="C4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="219" t="s">
+      <c r="E4" s="230" t="s">
         <v>146</v>
       </c>
       <c r="F4" s="71"/>
@@ -4756,11 +4755,11 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="70"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="220"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="231"/>
       <c r="F5" s="115"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -4824,7 +4823,7 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A6" s="209">
+      <c r="A6" s="194">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -4833,10 +4832,10 @@
       <c r="C6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="217" t="s">
+      <c r="D6" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="224"/>
+      <c r="E6" s="199"/>
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -4900,11 +4899,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A7" s="210"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="69"/>
       <c r="C7" s="92"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="228"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="200"/>
       <c r="F7" s="53"/>
       <c r="G7" s="116"/>
       <c r="H7" s="42"/>
@@ -4968,7 +4967,7 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A8" s="209">
+      <c r="A8" s="194">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
@@ -4977,10 +4976,10 @@
       <c r="C8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="199" t="s">
         <v>146</v>
       </c>
       <c r="F8" s="37"/>
@@ -5048,11 +5047,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A9" s="210"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="81"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="228"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="200"/>
       <c r="F9" s="53"/>
       <c r="G9" s="116"/>
       <c r="H9" s="116"/>
@@ -5116,7 +5115,7 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A10" s="209">
+      <c r="A10" s="194">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -5125,10 +5124,10 @@
       <c r="C10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="199" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="37"/>
@@ -5196,11 +5195,11 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A11" s="210"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="81"/>
       <c r="C11" s="86"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="200"/>
       <c r="F11" s="53"/>
       <c r="G11" s="116"/>
       <c r="H11" s="116"/>
@@ -5264,7 +5263,7 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A12" s="209">
+      <c r="A12" s="194">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
@@ -5273,10 +5272,10 @@
       <c r="C12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="217" t="s">
+      <c r="D12" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="224" t="s">
+      <c r="E12" s="199" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="37"/>
@@ -5344,11 +5343,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="81"/>
       <c r="C13" s="86"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="200"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5412,20 +5411,20 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A14" s="209">
+      <c r="A14" s="194">
         <v>6</v>
       </c>
-      <c r="B14" s="238" t="s">
+      <c r="B14" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="241" t="s">
+      <c r="C14" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="221" t="s">
+      <c r="D14" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="325" t="s">
-        <v>157</v>
+      <c r="E14" s="201" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
@@ -5447,7 +5446,7 @@
       </c>
       <c r="V14" s="186"/>
       <c r="W14" s="186"/>
-      <c r="X14" s="332"/>
+      <c r="X14" s="193"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="175"/>
@@ -5492,11 +5491,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A15" s="210"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="326"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -5528,8 +5527,8 @@
       <c r="AH15" s="25"/>
       <c r="AI15" s="60"/>
       <c r="AJ15" s="52"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
       <c r="AM15" s="26"/>
       <c r="AN15" s="27"/>
       <c r="AO15" s="25"/>
@@ -5560,16 +5559,16 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A16" s="209">
+      <c r="A16" s="194">
         <v>7</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="212" t="s">
+      <c r="B16" s="203"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="327" t="s">
-        <v>162</v>
+      <c r="E16" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="172"/>
@@ -5636,11 +5635,11 @@
       <c r="BN16" s="179"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A17" s="210"/>
-      <c r="B17" s="239"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="326"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="234"/>
       <c r="F17" s="52"/>
       <c r="G17" s="174"/>
       <c r="H17" s="174"/>
@@ -5672,8 +5671,8 @@
       <c r="AH17" s="174"/>
       <c r="AI17" s="178"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="174"/>
-      <c r="AL17" s="174"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
       <c r="AM17" s="26"/>
       <c r="AN17" s="27"/>
       <c r="AO17" s="174"/>
@@ -5704,16 +5703,16 @@
       <c r="BN17" s="178"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A18" s="209">
+      <c r="A18" s="194">
         <v>8</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="212" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="327" t="s">
-        <v>162</v>
+      <c r="B18" s="203"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="172"/>
@@ -5778,11 +5777,11 @@
       <c r="BN18" s="179"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A19" s="210"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="326"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="234"/>
       <c r="F19" s="52"/>
       <c r="G19" s="174"/>
       <c r="H19" s="174"/>
@@ -5814,8 +5813,8 @@
       <c r="AH19" s="174"/>
       <c r="AI19" s="178"/>
       <c r="AJ19" s="52"/>
-      <c r="AK19" s="174"/>
-      <c r="AL19" s="174"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
       <c r="AM19" s="26"/>
       <c r="AN19" s="27"/>
       <c r="AO19" s="174"/>
@@ -5846,16 +5845,16 @@
       <c r="BN19" s="178"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A20" s="209">
+      <c r="A20" s="194">
         <v>9</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="212" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="327" t="s">
-        <v>162</v>
+      <c r="B20" s="203"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="172"/>
@@ -5920,11 +5919,11 @@
       <c r="BN20" s="179"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A21" s="210"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="326"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="234"/>
       <c r="F21" s="52"/>
       <c r="G21" s="174"/>
       <c r="H21" s="174"/>
@@ -5988,16 +5987,16 @@
       <c r="BN21" s="178"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A22" s="209">
+      <c r="A22" s="194">
         <v>10</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="212" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="327" t="s">
-        <v>162</v>
+      <c r="B22" s="203"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="196" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
@@ -6062,11 +6061,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A23" s="210"/>
-      <c r="B23" s="239"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="326"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="234"/>
       <c r="F23" s="52"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -6098,8 +6097,8 @@
       <c r="AH23" s="25"/>
       <c r="AI23" s="60"/>
       <c r="AJ23" s="52"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
       <c r="AM23" s="26"/>
       <c r="AN23" s="27"/>
       <c r="AO23" s="25"/>
@@ -6130,15 +6129,15 @@
       <c r="BN23" s="60"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A24" s="209">
+      <c r="A24" s="194">
         <v>11</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="212" t="s">
+      <c r="B24" s="203"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="327" t="s">
+      <c r="E24" s="233" t="s">
         <v>162</v>
       </c>
       <c r="F24" s="51"/>
@@ -6206,11 +6205,11 @@
       <c r="BN24" s="63"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A25" s="210"/>
-      <c r="B25" s="239"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="326"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="234"/>
       <c r="F25" s="52"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -6242,8 +6241,8 @@
       <c r="AH25" s="25"/>
       <c r="AI25" s="60"/>
       <c r="AJ25" s="52"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
       <c r="AM25" s="26"/>
       <c r="AN25" s="27"/>
       <c r="AO25" s="25"/>
@@ -6274,16 +6273,16 @@
       <c r="BN25" s="60"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A26" s="209">
+      <c r="A26" s="194">
         <v>12</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="212" t="s">
+      <c r="B26" s="203"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="327" t="s">
-        <v>162</v>
+      <c r="E26" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="8"/>
@@ -6350,11 +6349,11 @@
       <c r="BN26" s="63"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A27" s="210"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="326"/>
+      <c r="A27" s="195"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="234"/>
       <c r="F27" s="52"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -6421,13 +6420,13 @@
       <c r="A28" s="190">
         <v>13</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="212" t="s">
+      <c r="B28" s="203"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="196" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="328" t="s">
-        <v>157</v>
+      <c r="E28" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="174"/>
@@ -6493,10 +6492,10 @@
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
       <c r="A29" s="190"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="329"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="234"/>
       <c r="F29" s="52"/>
       <c r="G29" s="174"/>
       <c r="H29" s="174"/>
@@ -6528,7 +6527,7 @@
       <c r="AH29" s="174"/>
       <c r="AI29" s="178"/>
       <c r="AJ29" s="52"/>
-      <c r="AK29" s="174"/>
+      <c r="AK29" s="33"/>
       <c r="AL29" s="174"/>
       <c r="AM29" s="26"/>
       <c r="AN29" s="27"/>
@@ -6560,16 +6559,16 @@
       <c r="BN29" s="178"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A30" s="209">
+      <c r="A30" s="194">
         <v>14</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="212" t="s">
+      <c r="B30" s="203"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="327" t="s">
-        <v>162</v>
+      <c r="E30" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="8"/>
@@ -6636,11 +6635,11 @@
       <c r="BN30" s="63"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A31" s="210"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="326"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="234"/>
       <c r="F31" s="52"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -6704,16 +6703,16 @@
       <c r="BN31" s="60"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A32" s="209">
+      <c r="A32" s="194">
         <v>15</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="212" t="s">
+      <c r="B32" s="203"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="327" t="s">
-        <v>162</v>
+      <c r="E32" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="8"/>
@@ -6780,11 +6779,11 @@
       <c r="BN32" s="63"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A33" s="210"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="326"/>
+      <c r="A33" s="195"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="234"/>
       <c r="F33" s="52"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -6816,7 +6815,7 @@
       <c r="AH33" s="25"/>
       <c r="AI33" s="60"/>
       <c r="AJ33" s="52"/>
-      <c r="AK33" s="25"/>
+      <c r="AK33" s="33"/>
       <c r="AL33" s="25"/>
       <c r="AM33" s="26"/>
       <c r="AN33" s="27"/>
@@ -6848,16 +6847,16 @@
       <c r="BN33" s="60"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A34" s="209">
+      <c r="A34" s="194">
         <v>16</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="212" t="s">
+      <c r="B34" s="203"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="327" t="s">
-        <v>157</v>
+      <c r="E34" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="8"/>
@@ -6924,11 +6923,11 @@
       <c r="BN34" s="63"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A35" s="210"/>
-      <c r="B35" s="239"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="326"/>
+      <c r="A35" s="195"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="234"/>
       <c r="F35" s="52"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -6954,12 +6953,12 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="33"/>
       <c r="AD35" s="33"/>
-      <c r="AE35" s="331"/>
+      <c r="AE35" s="192"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="27"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="52"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="331"/>
+      <c r="AJ35" s="115"/>
       <c r="AK35" s="25"/>
       <c r="AL35" s="25"/>
       <c r="AM35" s="26"/>
@@ -6992,16 +6991,16 @@
       <c r="BN35" s="60"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A36" s="209">
+      <c r="A36" s="194">
         <v>17</v>
       </c>
-      <c r="B36" s="239"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="212" t="s">
+      <c r="B36" s="203"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="327" t="s">
-        <v>163</v>
+      <c r="E36" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="8"/>
@@ -7068,11 +7067,11 @@
       <c r="BN36" s="63"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A37" s="210"/>
-      <c r="B37" s="239"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="326"/>
+      <c r="A37" s="195"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="234"/>
       <c r="F37" s="52"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
@@ -7098,12 +7097,12 @@
       <c r="AB37" s="73"/>
       <c r="AC37" s="187"/>
       <c r="AD37" s="33"/>
-      <c r="AE37" s="331"/>
+      <c r="AE37" s="192"/>
       <c r="AF37" s="26"/>
       <c r="AG37" s="27"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="52"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="331"/>
+      <c r="AJ37" s="115"/>
       <c r="AK37" s="25"/>
       <c r="AL37" s="25"/>
       <c r="AM37" s="26"/>
@@ -7136,16 +7135,16 @@
       <c r="BN37" s="60"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A38" s="209">
+      <c r="A38" s="194">
         <v>18</v>
       </c>
-      <c r="B38" s="239"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="212" t="s">
+      <c r="B38" s="203"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="327" t="s">
-        <v>162</v>
+      <c r="E38" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="8"/>
@@ -7212,11 +7211,11 @@
       <c r="BN38" s="63"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A39" s="210"/>
-      <c r="B39" s="239"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="326"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="234"/>
       <c r="F39" s="52"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -7280,16 +7279,16 @@
       <c r="BN39" s="60"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A40" s="209">
+      <c r="A40" s="194">
         <v>19</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="212" t="s">
+      <c r="B40" s="203"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="327" t="s">
-        <v>163</v>
+      <c r="E40" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="8"/>
@@ -7356,11 +7355,11 @@
       <c r="BN40" s="63"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A41" s="210"/>
-      <c r="B41" s="239"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="326"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="234"/>
       <c r="F41" s="52"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -7385,14 +7384,14 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="73"/>
       <c r="AC41" s="187"/>
-      <c r="AD41" s="331"/>
-      <c r="AE41" s="331"/>
+      <c r="AD41" s="192"/>
+      <c r="AE41" s="192"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="27"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="25"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="331"/>
+      <c r="AJ41" s="115"/>
+      <c r="AK41" s="33"/>
       <c r="AL41" s="25"/>
       <c r="AM41" s="26"/>
       <c r="AN41" s="27"/>
@@ -7424,16 +7423,16 @@
       <c r="BN41" s="60"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A42" s="209">
+      <c r="A42" s="194">
         <v>20</v>
       </c>
-      <c r="B42" s="239"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="203"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="196" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="233" t="s">
         <v>161</v>
-      </c>
-      <c r="E42" s="327" t="s">
-        <v>163</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="172"/>
@@ -7498,11 +7497,11 @@
       <c r="BN42" s="179"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A43" s="210"/>
-      <c r="B43" s="239"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="326"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="203"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="234"/>
       <c r="F43" s="52"/>
       <c r="G43" s="174"/>
       <c r="H43" s="174"/>
@@ -7528,10 +7527,10 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="187"/>
       <c r="AD43" s="187"/>
-      <c r="AE43" s="331"/>
+      <c r="AE43" s="192"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="27"/>
-      <c r="AH43" s="174"/>
+      <c r="AH43" s="33"/>
       <c r="AI43" s="178"/>
       <c r="AJ43" s="52"/>
       <c r="AK43" s="174"/>
@@ -7566,16 +7565,16 @@
       <c r="BN43" s="178"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A44" s="209">
+      <c r="A44" s="194">
         <v>21</v>
       </c>
-      <c r="B44" s="239"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="212" t="s">
+      <c r="B44" s="203"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="327" t="s">
-        <v>162</v>
+      <c r="E44" s="233" t="s">
+        <v>161</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="8"/>
@@ -7642,11 +7641,11 @@
       <c r="BN44" s="63"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A45" s="210"/>
-      <c r="B45" s="239"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="326"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="203"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="234"/>
       <c r="F45" s="52"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -7678,7 +7677,7 @@
       <c r="AH45" s="25"/>
       <c r="AI45" s="60"/>
       <c r="AJ45" s="52"/>
-      <c r="AK45" s="25"/>
+      <c r="AK45" s="33"/>
       <c r="AL45" s="25"/>
       <c r="AM45" s="26"/>
       <c r="AN45" s="27"/>
@@ -7710,16 +7709,16 @@
       <c r="BN45" s="60"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A46" s="209">
+      <c r="A46" s="194">
         <v>22</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="212" t="s">
+      <c r="B46" s="203"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="327" t="s">
-        <v>157</v>
+      <c r="E46" s="233" t="s">
+        <v>162</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="25"/>
@@ -7786,11 +7785,11 @@
       <c r="BN46" s="60"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A47" s="210"/>
-      <c r="B47" s="240"/>
-      <c r="C47" s="242"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="330"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="333"/>
       <c r="F47" s="54"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -7816,14 +7815,14 @@
       <c r="AB47" s="76"/>
       <c r="AC47" s="185"/>
       <c r="AD47" s="33"/>
-      <c r="AE47" s="331"/>
+      <c r="AE47" s="192"/>
       <c r="AF47" s="18"/>
       <c r="AG47" s="24"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="64"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
+      <c r="AJ47" s="332"/>
+      <c r="AK47" s="185"/>
+      <c r="AL47" s="185"/>
       <c r="AM47" s="18"/>
       <c r="AN47" s="24"/>
       <c r="AO47" s="9"/>
@@ -7854,19 +7853,19 @@
       <c r="BN47" s="64"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A48" s="209">
+      <c r="A48" s="194">
         <v>18</v>
       </c>
-      <c r="B48" s="197" t="s">
+      <c r="B48" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="216" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="215" t="s">
+      <c r="D48" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="224"/>
+      <c r="E48" s="199"/>
       <c r="F48" s="37"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -7930,11 +7929,11 @@
       <c r="BN48" s="61"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A49" s="210"/>
-      <c r="B49" s="198"/>
-      <c r="C49" s="226"/>
-      <c r="D49" s="216"/>
-      <c r="E49" s="211"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="214"/>
+      <c r="C49" s="217"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="212"/>
       <c r="F49" s="52"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -7998,17 +7997,17 @@
       <c r="BN49" s="60"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A50" s="209">
+      <c r="A50" s="194">
         <v>19</v>
       </c>
-      <c r="B50" s="198"/>
-      <c r="C50" s="203" t="s">
+      <c r="B50" s="214"/>
+      <c r="C50" s="243" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="192"/>
+      <c r="E50" s="210"/>
       <c r="F50" s="51"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -8074,11 +8073,11 @@
       <c r="BN50" s="63"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A51" s="210"/>
-      <c r="B51" s="198"/>
-      <c r="C51" s="204"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="214"/>
+      <c r="C51" s="244"/>
       <c r="D51" s="184"/>
-      <c r="E51" s="193"/>
+      <c r="E51" s="211"/>
       <c r="F51" s="52"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -8142,15 +8141,15 @@
       <c r="BN51" s="60"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A52" s="209">
+      <c r="A52" s="194">
         <v>20</v>
       </c>
-      <c r="B52" s="198"/>
-      <c r="C52" s="204"/>
+      <c r="B52" s="214"/>
+      <c r="C52" s="244"/>
       <c r="D52" s="181" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="192"/>
+      <c r="E52" s="210"/>
       <c r="F52" s="51"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -8216,11 +8215,11 @@
       <c r="BN52" s="63"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A53" s="210"/>
-      <c r="B53" s="198"/>
-      <c r="C53" s="204"/>
+      <c r="A53" s="195"/>
+      <c r="B53" s="214"/>
+      <c r="C53" s="244"/>
       <c r="D53" s="182"/>
-      <c r="E53" s="193"/>
+      <c r="E53" s="211"/>
       <c r="F53" s="52"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -8284,15 +8283,15 @@
       <c r="BN53" s="60"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A54" s="209">
+      <c r="A54" s="194">
         <v>21</v>
       </c>
-      <c r="B54" s="198"/>
-      <c r="C54" s="204"/>
+      <c r="B54" s="214"/>
+      <c r="C54" s="244"/>
       <c r="D54" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="192"/>
+      <c r="E54" s="210"/>
       <c r="F54" s="51"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -8358,11 +8357,11 @@
       <c r="BN54" s="63"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A55" s="210"/>
-      <c r="B55" s="198"/>
-      <c r="C55" s="204"/>
+      <c r="A55" s="195"/>
+      <c r="B55" s="214"/>
+      <c r="C55" s="244"/>
       <c r="D55" s="184"/>
-      <c r="E55" s="193"/>
+      <c r="E55" s="211"/>
       <c r="F55" s="52"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -8426,15 +8425,15 @@
       <c r="BN55" s="60"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A56" s="209">
+      <c r="A56" s="194">
         <v>22</v>
       </c>
-      <c r="B56" s="198"/>
-      <c r="C56" s="204"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="244"/>
       <c r="D56" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="192"/>
+      <c r="E56" s="210"/>
       <c r="F56" s="51"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -8500,11 +8499,11 @@
       <c r="BN56" s="63"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A57" s="210"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="204"/>
+      <c r="A57" s="195"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="244"/>
       <c r="D57" s="184"/>
-      <c r="E57" s="193"/>
+      <c r="E57" s="211"/>
       <c r="F57" s="52"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -8568,15 +8567,15 @@
       <c r="BN57" s="60"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A58" s="209">
+      <c r="A58" s="194">
         <v>23</v>
       </c>
-      <c r="B58" s="198"/>
-      <c r="C58" s="204"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="244"/>
       <c r="D58" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="192"/>
+      <c r="E58" s="210"/>
       <c r="F58" s="51"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -8642,11 +8641,11 @@
       <c r="BN58" s="63"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A59" s="210"/>
-      <c r="B59" s="198"/>
-      <c r="C59" s="204"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="214"/>
+      <c r="C59" s="244"/>
       <c r="D59" s="184"/>
-      <c r="E59" s="193"/>
+      <c r="E59" s="211"/>
       <c r="F59" s="52"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -8710,15 +8709,15 @@
       <c r="BN59" s="60"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A60" s="209">
+      <c r="A60" s="194">
         <v>24</v>
       </c>
-      <c r="B60" s="198"/>
-      <c r="C60" s="204"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="244"/>
       <c r="D60" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="192"/>
+      <c r="E60" s="210"/>
       <c r="F60" s="51"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -8784,11 +8783,11 @@
       <c r="BN60" s="63"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="210"/>
-      <c r="B61" s="198"/>
-      <c r="C61" s="204"/>
+      <c r="A61" s="195"/>
+      <c r="B61" s="214"/>
+      <c r="C61" s="244"/>
       <c r="D61" s="184"/>
-      <c r="E61" s="193"/>
+      <c r="E61" s="211"/>
       <c r="F61" s="52"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -8852,15 +8851,15 @@
       <c r="BN61" s="60"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A62" s="209">
+      <c r="A62" s="194">
         <v>25</v>
       </c>
-      <c r="B62" s="198"/>
-      <c r="C62" s="204"/>
+      <c r="B62" s="214"/>
+      <c r="C62" s="244"/>
       <c r="D62" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="192"/>
+      <c r="E62" s="210"/>
       <c r="F62" s="51"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -8926,11 +8925,11 @@
       <c r="BN62" s="63"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A63" s="210"/>
-      <c r="B63" s="198"/>
-      <c r="C63" s="204"/>
+      <c r="A63" s="195"/>
+      <c r="B63" s="214"/>
+      <c r="C63" s="244"/>
       <c r="D63" s="184"/>
-      <c r="E63" s="193"/>
+      <c r="E63" s="211"/>
       <c r="F63" s="52"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -8994,15 +8993,15 @@
       <c r="BN63" s="60"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A64" s="209">
+      <c r="A64" s="194">
         <v>26</v>
       </c>
-      <c r="B64" s="198"/>
-      <c r="C64" s="204"/>
+      <c r="B64" s="214"/>
+      <c r="C64" s="244"/>
       <c r="D64" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="192"/>
+      <c r="E64" s="210"/>
       <c r="F64" s="51"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -9068,11 +9067,11 @@
       <c r="BN64" s="63"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A65" s="210"/>
-      <c r="B65" s="198"/>
-      <c r="C65" s="204"/>
+      <c r="A65" s="195"/>
+      <c r="B65" s="214"/>
+      <c r="C65" s="244"/>
       <c r="D65" s="184"/>
-      <c r="E65" s="193"/>
+      <c r="E65" s="211"/>
       <c r="F65" s="52"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -9136,15 +9135,15 @@
       <c r="BN65" s="60"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A66" s="209">
+      <c r="A66" s="194">
         <v>27</v>
       </c>
-      <c r="B66" s="198"/>
-      <c r="C66" s="204"/>
+      <c r="B66" s="214"/>
+      <c r="C66" s="244"/>
       <c r="D66" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="192"/>
+      <c r="E66" s="210"/>
       <c r="F66" s="51"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -9210,11 +9209,11 @@
       <c r="BN66" s="63"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A67" s="210"/>
-      <c r="B67" s="198"/>
-      <c r="C67" s="204"/>
+      <c r="A67" s="195"/>
+      <c r="B67" s="214"/>
+      <c r="C67" s="244"/>
       <c r="D67" s="184"/>
-      <c r="E67" s="193"/>
+      <c r="E67" s="211"/>
       <c r="F67" s="52"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -9278,15 +9277,15 @@
       <c r="BN67" s="60"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A68" s="209">
+      <c r="A68" s="194">
         <v>28</v>
       </c>
-      <c r="B68" s="198"/>
-      <c r="C68" s="204"/>
+      <c r="B68" s="214"/>
+      <c r="C68" s="244"/>
       <c r="D68" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="E68" s="192"/>
+      <c r="E68" s="210"/>
       <c r="F68" s="51"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -9352,11 +9351,11 @@
       <c r="BN68" s="63"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A69" s="210"/>
-      <c r="B69" s="198"/>
-      <c r="C69" s="204"/>
+      <c r="A69" s="195"/>
+      <c r="B69" s="214"/>
+      <c r="C69" s="244"/>
       <c r="D69" s="184"/>
-      <c r="E69" s="193"/>
+      <c r="E69" s="211"/>
       <c r="F69" s="52"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -9420,15 +9419,15 @@
       <c r="BN69" s="60"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A70" s="209">
+      <c r="A70" s="194">
         <v>29</v>
       </c>
-      <c r="B70" s="198"/>
-      <c r="C70" s="204"/>
+      <c r="B70" s="214"/>
+      <c r="C70" s="244"/>
       <c r="D70" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="192"/>
+      <c r="E70" s="210"/>
       <c r="F70" s="52"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -9494,11 +9493,11 @@
       <c r="BN70" s="60"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A71" s="210"/>
-      <c r="B71" s="198"/>
-      <c r="C71" s="204"/>
+      <c r="A71" s="195"/>
+      <c r="B71" s="214"/>
+      <c r="C71" s="244"/>
       <c r="D71" s="184"/>
-      <c r="E71" s="193"/>
+      <c r="E71" s="211"/>
       <c r="F71" s="52"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -9562,15 +9561,15 @@
       <c r="BN71" s="60"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A72" s="209">
+      <c r="A72" s="194">
         <v>30</v>
       </c>
-      <c r="B72" s="198"/>
-      <c r="C72" s="204"/>
+      <c r="B72" s="214"/>
+      <c r="C72" s="244"/>
       <c r="D72" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="192"/>
+      <c r="E72" s="210"/>
       <c r="F72" s="52"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -9636,11 +9635,11 @@
       <c r="BN72" s="60"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A73" s="210"/>
-      <c r="B73" s="198"/>
-      <c r="C73" s="204"/>
+      <c r="A73" s="195"/>
+      <c r="B73" s="214"/>
+      <c r="C73" s="244"/>
       <c r="D73" s="184"/>
-      <c r="E73" s="193"/>
+      <c r="E73" s="211"/>
       <c r="F73" s="52"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -9704,15 +9703,15 @@
       <c r="BN73" s="60"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A74" s="209">
+      <c r="A74" s="194">
         <v>31</v>
       </c>
-      <c r="B74" s="198"/>
-      <c r="C74" s="204"/>
+      <c r="B74" s="214"/>
+      <c r="C74" s="244"/>
       <c r="D74" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="192"/>
+      <c r="E74" s="210"/>
       <c r="F74" s="52"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -9778,11 +9777,11 @@
       <c r="BN74" s="60"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A75" s="210"/>
-      <c r="B75" s="198"/>
-      <c r="C75" s="204"/>
+      <c r="A75" s="195"/>
+      <c r="B75" s="214"/>
+      <c r="C75" s="244"/>
       <c r="D75" s="184"/>
-      <c r="E75" s="193"/>
+      <c r="E75" s="211"/>
       <c r="F75" s="52"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -9846,15 +9845,15 @@
       <c r="BN75" s="60"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A76" s="209">
+      <c r="A76" s="194">
         <v>32</v>
       </c>
-      <c r="B76" s="198"/>
-      <c r="C76" s="204"/>
+      <c r="B76" s="214"/>
+      <c r="C76" s="244"/>
       <c r="D76" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="192"/>
+      <c r="E76" s="210"/>
       <c r="F76" s="52"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -9920,11 +9919,11 @@
       <c r="BN76" s="60"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A77" s="210"/>
-      <c r="B77" s="198"/>
-      <c r="C77" s="204"/>
+      <c r="A77" s="195"/>
+      <c r="B77" s="214"/>
+      <c r="C77" s="244"/>
       <c r="D77" s="184"/>
-      <c r="E77" s="193"/>
+      <c r="E77" s="211"/>
       <c r="F77" s="52"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9988,15 +9987,15 @@
       <c r="BN77" s="60"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A78" s="209">
+      <c r="A78" s="194">
         <v>33</v>
       </c>
-      <c r="B78" s="198"/>
-      <c r="C78" s="204"/>
+      <c r="B78" s="214"/>
+      <c r="C78" s="244"/>
       <c r="D78" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="192"/>
+      <c r="E78" s="210"/>
       <c r="F78" s="52"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -10062,11 +10061,11 @@
       <c r="BN78" s="60"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A79" s="210"/>
-      <c r="B79" s="198"/>
-      <c r="C79" s="204"/>
+      <c r="A79" s="195"/>
+      <c r="B79" s="214"/>
+      <c r="C79" s="244"/>
       <c r="D79" s="184"/>
-      <c r="E79" s="193"/>
+      <c r="E79" s="211"/>
       <c r="F79" s="52"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -10130,15 +10129,15 @@
       <c r="BN79" s="60"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A80" s="209">
+      <c r="A80" s="194">
         <v>34</v>
       </c>
-      <c r="B80" s="198"/>
-      <c r="C80" s="204"/>
+      <c r="B80" s="214"/>
+      <c r="C80" s="244"/>
       <c r="D80" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="E80" s="192"/>
+      <c r="E80" s="210"/>
       <c r="F80" s="52"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -10204,11 +10203,11 @@
       <c r="BN80" s="60"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A81" s="210"/>
-      <c r="B81" s="198"/>
-      <c r="C81" s="204"/>
+      <c r="A81" s="195"/>
+      <c r="B81" s="214"/>
+      <c r="C81" s="244"/>
       <c r="D81" s="184"/>
-      <c r="E81" s="193"/>
+      <c r="E81" s="211"/>
       <c r="F81" s="52"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -10272,15 +10271,15 @@
       <c r="BN81" s="60"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A82" s="209">
+      <c r="A82" s="194">
         <v>35</v>
       </c>
-      <c r="B82" s="198"/>
-      <c r="C82" s="204"/>
+      <c r="B82" s="214"/>
+      <c r="C82" s="244"/>
       <c r="D82" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="192"/>
+      <c r="E82" s="210"/>
       <c r="F82" s="52"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -10346,11 +10345,11 @@
       <c r="BN82" s="60"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A83" s="210"/>
-      <c r="B83" s="198"/>
-      <c r="C83" s="204"/>
+      <c r="A83" s="195"/>
+      <c r="B83" s="214"/>
+      <c r="C83" s="244"/>
       <c r="D83" s="184"/>
-      <c r="E83" s="193"/>
+      <c r="E83" s="211"/>
       <c r="F83" s="52"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -10414,15 +10413,15 @@
       <c r="BN83" s="60"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A84" s="209">
+      <c r="A84" s="194">
         <v>36</v>
       </c>
-      <c r="B84" s="198"/>
-      <c r="C84" s="204"/>
+      <c r="B84" s="214"/>
+      <c r="C84" s="244"/>
       <c r="D84" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="192"/>
+      <c r="E84" s="210"/>
       <c r="F84" s="52"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -10488,11 +10487,11 @@
       <c r="BN84" s="60"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A85" s="210"/>
-      <c r="B85" s="198"/>
-      <c r="C85" s="204"/>
+      <c r="A85" s="195"/>
+      <c r="B85" s="214"/>
+      <c r="C85" s="244"/>
       <c r="D85" s="184"/>
-      <c r="E85" s="193"/>
+      <c r="E85" s="211"/>
       <c r="F85" s="52"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
@@ -10556,15 +10555,15 @@
       <c r="BN85" s="60"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A86" s="209">
+      <c r="A86" s="194">
         <v>37</v>
       </c>
-      <c r="B86" s="198"/>
-      <c r="C86" s="204"/>
+      <c r="B86" s="214"/>
+      <c r="C86" s="244"/>
       <c r="D86" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="192"/>
+      <c r="E86" s="210"/>
       <c r="F86" s="52"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -10630,11 +10629,11 @@
       <c r="BN86" s="60"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A87" s="210"/>
-      <c r="B87" s="198"/>
-      <c r="C87" s="204"/>
+      <c r="A87" s="195"/>
+      <c r="B87" s="214"/>
+      <c r="C87" s="244"/>
       <c r="D87" s="184"/>
-      <c r="E87" s="193"/>
+      <c r="E87" s="211"/>
       <c r="F87" s="52"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
@@ -10698,15 +10697,15 @@
       <c r="BN87" s="60"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A88" s="209">
+      <c r="A88" s="194">
         <v>38</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="204"/>
+      <c r="B88" s="214"/>
+      <c r="C88" s="244"/>
       <c r="D88" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="192"/>
+      <c r="E88" s="210"/>
       <c r="F88" s="52"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
@@ -10772,11 +10771,11 @@
       <c r="BN88" s="60"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A89" s="210"/>
-      <c r="B89" s="198"/>
-      <c r="C89" s="204"/>
+      <c r="A89" s="195"/>
+      <c r="B89" s="214"/>
+      <c r="C89" s="244"/>
       <c r="D89" s="184"/>
-      <c r="E89" s="193"/>
+      <c r="E89" s="211"/>
       <c r="F89" s="52"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
@@ -10840,15 +10839,15 @@
       <c r="BN89" s="60"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A90" s="209">
+      <c r="A90" s="194">
         <v>39</v>
       </c>
-      <c r="B90" s="198"/>
-      <c r="C90" s="204"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="244"/>
       <c r="D90" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="192"/>
+      <c r="E90" s="210"/>
       <c r="F90" s="52"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
@@ -10914,11 +10913,11 @@
       <c r="BN90" s="60"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A91" s="210"/>
-      <c r="B91" s="198"/>
-      <c r="C91" s="204"/>
+      <c r="A91" s="195"/>
+      <c r="B91" s="214"/>
+      <c r="C91" s="244"/>
       <c r="D91" s="184"/>
-      <c r="E91" s="193"/>
+      <c r="E91" s="211"/>
       <c r="F91" s="52"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
@@ -10982,15 +10981,15 @@
       <c r="BN91" s="60"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A92" s="209">
+      <c r="A92" s="194">
         <v>40</v>
       </c>
-      <c r="B92" s="198"/>
-      <c r="C92" s="204"/>
+      <c r="B92" s="214"/>
+      <c r="C92" s="244"/>
       <c r="D92" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="192"/>
+      <c r="E92" s="210"/>
       <c r="F92" s="52"/>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
@@ -11056,11 +11055,11 @@
       <c r="BN92" s="60"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A93" s="210"/>
-      <c r="B93" s="199"/>
-      <c r="C93" s="205"/>
+      <c r="A93" s="195"/>
+      <c r="B93" s="215"/>
+      <c r="C93" s="245"/>
       <c r="D93" s="184"/>
-      <c r="E93" s="194"/>
+      <c r="E93" s="238"/>
       <c r="F93" s="54"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -11124,10 +11123,10 @@
       <c r="BN93" s="64"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A94" s="209">
+      <c r="A94" s="194">
         <v>41</v>
       </c>
-      <c r="B94" s="197" t="s">
+      <c r="B94" s="213" t="s">
         <v>59</v>
       </c>
       <c r="C94" s="104" t="s">
@@ -11202,8 +11201,8 @@
       <c r="BN94" s="61"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A95" s="210"/>
-      <c r="B95" s="198"/>
+      <c r="A95" s="195"/>
+      <c r="B95" s="214"/>
       <c r="C95" s="105"/>
       <c r="D95" s="103"/>
       <c r="E95" s="134"/>
@@ -11270,10 +11269,10 @@
       <c r="BN95" s="60"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A96" s="209">
+      <c r="A96" s="194">
         <v>42</v>
       </c>
-      <c r="B96" s="198"/>
+      <c r="B96" s="214"/>
       <c r="C96" s="105"/>
       <c r="D96" s="102" t="s">
         <v>62</v>
@@ -11344,8 +11343,8 @@
       <c r="BN96" s="63"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A97" s="210"/>
-      <c r="B97" s="198"/>
+      <c r="A97" s="195"/>
+      <c r="B97" s="214"/>
       <c r="C97" s="105"/>
       <c r="D97" s="103"/>
       <c r="E97" s="134"/>
@@ -11412,10 +11411,10 @@
       <c r="BN97" s="60"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A98" s="209">
+      <c r="A98" s="194">
         <v>43</v>
       </c>
-      <c r="B98" s="198"/>
+      <c r="B98" s="214"/>
       <c r="C98" s="105"/>
       <c r="D98" s="102" t="s">
         <v>63</v>
@@ -11486,8 +11485,8 @@
       <c r="BN98" s="63"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A99" s="210"/>
-      <c r="B99" s="198"/>
+      <c r="A99" s="195"/>
+      <c r="B99" s="214"/>
       <c r="C99" s="105"/>
       <c r="D99" s="103"/>
       <c r="E99" s="134"/>
@@ -11554,10 +11553,10 @@
       <c r="BN99" s="60"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A100" s="209">
+      <c r="A100" s="194">
         <v>44</v>
       </c>
-      <c r="B100" s="198"/>
+      <c r="B100" s="214"/>
       <c r="C100" s="105"/>
       <c r="D100" s="102" t="s">
         <v>64</v>
@@ -11628,8 +11627,8 @@
       <c r="BN100" s="63"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A101" s="210"/>
-      <c r="B101" s="198"/>
+      <c r="A101" s="195"/>
+      <c r="B101" s="214"/>
       <c r="C101" s="105"/>
       <c r="D101" s="103"/>
       <c r="E101" s="134"/>
@@ -11696,10 +11695,10 @@
       <c r="BN101" s="60"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A102" s="209">
+      <c r="A102" s="194">
         <v>45</v>
       </c>
-      <c r="B102" s="198"/>
+      <c r="B102" s="214"/>
       <c r="C102" s="105"/>
       <c r="D102" s="102" t="s">
         <v>65</v>
@@ -11770,8 +11769,8 @@
       <c r="BN102" s="63"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A103" s="210"/>
-      <c r="B103" s="198"/>
+      <c r="A103" s="195"/>
+      <c r="B103" s="214"/>
       <c r="C103" s="105"/>
       <c r="D103" s="103"/>
       <c r="E103" s="134"/>
@@ -11838,10 +11837,10 @@
       <c r="BN103" s="60"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A104" s="209">
+      <c r="A104" s="194">
         <v>46</v>
       </c>
-      <c r="B104" s="198"/>
+      <c r="B104" s="214"/>
       <c r="C104" s="105"/>
       <c r="D104" s="102" t="s">
         <v>155</v>
@@ -11912,8 +11911,8 @@
       <c r="BN104" s="63"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A105" s="210"/>
-      <c r="B105" s="198"/>
+      <c r="A105" s="195"/>
+      <c r="B105" s="214"/>
       <c r="C105" s="105"/>
       <c r="D105" s="103"/>
       <c r="E105" s="134"/>
@@ -11980,10 +11979,10 @@
       <c r="BN105" s="60"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A106" s="209">
+      <c r="A106" s="194">
         <v>47</v>
       </c>
-      <c r="B106" s="198"/>
+      <c r="B106" s="214"/>
       <c r="C106" s="105"/>
       <c r="D106" s="102" t="s">
         <v>67</v>
@@ -12054,8 +12053,8 @@
       <c r="BN106" s="60"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A107" s="210"/>
-      <c r="B107" s="198"/>
+      <c r="A107" s="195"/>
+      <c r="B107" s="214"/>
       <c r="C107" s="105"/>
       <c r="D107" s="101"/>
       <c r="E107" s="114"/>
@@ -12122,10 +12121,10 @@
       <c r="BN107" s="60"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A108" s="209">
+      <c r="A108" s="194">
         <v>48</v>
       </c>
-      <c r="B108" s="198"/>
+      <c r="B108" s="214"/>
       <c r="C108" s="110" t="s">
         <v>68</v>
       </c>
@@ -12198,8 +12197,8 @@
       <c r="BN108" s="63"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A109" s="210"/>
-      <c r="B109" s="198"/>
+      <c r="A109" s="195"/>
+      <c r="B109" s="214"/>
       <c r="C109" s="113"/>
       <c r="D109" s="103"/>
       <c r="E109" s="134"/>
@@ -12266,10 +12265,10 @@
       <c r="BN109" s="60"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A110" s="209">
+      <c r="A110" s="194">
         <v>49</v>
       </c>
-      <c r="B110" s="198"/>
+      <c r="B110" s="214"/>
       <c r="C110" s="113"/>
       <c r="D110" s="102" t="s">
         <v>70</v>
@@ -12340,8 +12339,8 @@
       <c r="BN110" s="63"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A111" s="210"/>
-      <c r="B111" s="198"/>
+      <c r="A111" s="195"/>
+      <c r="B111" s="214"/>
       <c r="C111" s="113"/>
       <c r="D111" s="103"/>
       <c r="E111" s="134"/>
@@ -12408,10 +12407,10 @@
       <c r="BN111" s="60"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A112" s="209">
+      <c r="A112" s="194">
         <v>50</v>
       </c>
-      <c r="B112" s="198"/>
+      <c r="B112" s="214"/>
       <c r="C112" s="113"/>
       <c r="D112" s="102" t="s">
         <v>71</v>
@@ -12482,8 +12481,8 @@
       <c r="BN112" s="63"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A113" s="210"/>
-      <c r="B113" s="198"/>
+      <c r="A113" s="195"/>
+      <c r="B113" s="214"/>
       <c r="C113" s="113"/>
       <c r="D113" s="103"/>
       <c r="E113" s="134"/>
@@ -12550,10 +12549,10 @@
       <c r="BN113" s="60"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A114" s="209">
+      <c r="A114" s="194">
         <v>51</v>
       </c>
-      <c r="B114" s="198"/>
+      <c r="B114" s="214"/>
       <c r="C114" s="113"/>
       <c r="D114" s="102" t="s">
         <v>64</v>
@@ -12624,8 +12623,8 @@
       <c r="BN114" s="63"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A115" s="210"/>
-      <c r="B115" s="198"/>
+      <c r="A115" s="195"/>
+      <c r="B115" s="214"/>
       <c r="C115" s="113"/>
       <c r="D115" s="103"/>
       <c r="E115" s="134"/>
@@ -12692,10 +12691,10 @@
       <c r="BN115" s="60"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A116" s="209">
+      <c r="A116" s="194">
         <v>52</v>
       </c>
-      <c r="B116" s="198"/>
+      <c r="B116" s="214"/>
       <c r="C116" s="113"/>
       <c r="D116" s="102" t="s">
         <v>72</v>
@@ -12766,8 +12765,8 @@
       <c r="BN116" s="60"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A117" s="210"/>
-      <c r="B117" s="198"/>
+      <c r="A117" s="195"/>
+      <c r="B117" s="214"/>
       <c r="C117" s="113"/>
       <c r="D117" s="103"/>
       <c r="E117" s="134"/>
@@ -12834,10 +12833,10 @@
       <c r="BN117" s="60"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A118" s="209">
+      <c r="A118" s="194">
         <v>53</v>
       </c>
-      <c r="B118" s="198"/>
+      <c r="B118" s="214"/>
       <c r="C118" s="113"/>
       <c r="D118" s="102" t="s">
         <v>73</v>
@@ -12908,8 +12907,8 @@
       <c r="BN118" s="60"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A119" s="210"/>
-      <c r="B119" s="198"/>
+      <c r="A119" s="195"/>
+      <c r="B119" s="214"/>
       <c r="C119" s="113"/>
       <c r="D119" s="103"/>
       <c r="E119" s="134"/>
@@ -12976,10 +12975,10 @@
       <c r="BN119" s="60"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A120" s="209">
+      <c r="A120" s="194">
         <v>54</v>
       </c>
-      <c r="B120" s="198"/>
+      <c r="B120" s="214"/>
       <c r="C120" s="113"/>
       <c r="D120" s="102" t="s">
         <v>74</v>
@@ -13050,8 +13049,8 @@
       <c r="BN120" s="60"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A121" s="210"/>
-      <c r="B121" s="198"/>
+      <c r="A121" s="195"/>
+      <c r="B121" s="214"/>
       <c r="C121" s="113"/>
       <c r="D121" s="103"/>
       <c r="E121" s="134"/>
@@ -13118,10 +13117,10 @@
       <c r="BN121" s="60"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A122" s="209">
+      <c r="A122" s="194">
         <v>55</v>
       </c>
-      <c r="B122" s="198"/>
+      <c r="B122" s="214"/>
       <c r="C122" s="113"/>
       <c r="D122" s="106" t="s">
         <v>75</v>
@@ -13192,8 +13191,8 @@
       <c r="BN122" s="60"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A123" s="210"/>
-      <c r="B123" s="198"/>
+      <c r="A123" s="195"/>
+      <c r="B123" s="214"/>
       <c r="C123" s="113"/>
       <c r="D123" s="107"/>
       <c r="E123" s="108"/>
@@ -13260,10 +13259,10 @@
       <c r="BN123" s="60"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A124" s="209">
+      <c r="A124" s="194">
         <v>56</v>
       </c>
-      <c r="B124" s="198"/>
+      <c r="B124" s="214"/>
       <c r="C124" s="113"/>
       <c r="D124" s="102" t="s">
         <v>76</v>
@@ -13334,8 +13333,8 @@
       <c r="BN124" s="60"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A125" s="210"/>
-      <c r="B125" s="198"/>
+      <c r="A125" s="195"/>
+      <c r="B125" s="214"/>
       <c r="C125" s="113"/>
       <c r="D125" s="103"/>
       <c r="E125" s="108"/>
@@ -13402,10 +13401,10 @@
       <c r="BN125" s="60"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A126" s="209">
+      <c r="A126" s="194">
         <v>57</v>
       </c>
-      <c r="B126" s="198"/>
+      <c r="B126" s="214"/>
       <c r="C126" s="113"/>
       <c r="D126" s="102" t="s">
         <v>155</v>
@@ -13476,8 +13475,8 @@
       <c r="BN126" s="60"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A127" s="210"/>
-      <c r="B127" s="198"/>
+      <c r="A127" s="195"/>
+      <c r="B127" s="214"/>
       <c r="C127" s="113"/>
       <c r="D127" s="103"/>
       <c r="E127" s="108"/>
@@ -13544,10 +13543,10 @@
       <c r="BN127" s="60"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A128" s="209">
+      <c r="A128" s="194">
         <v>58</v>
       </c>
-      <c r="B128" s="198"/>
+      <c r="B128" s="214"/>
       <c r="C128" s="113"/>
       <c r="D128" s="102" t="s">
         <v>77</v>
@@ -13618,8 +13617,8 @@
       <c r="BN128" s="60"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A129" s="210"/>
-      <c r="B129" s="198"/>
+      <c r="A129" s="195"/>
+      <c r="B129" s="214"/>
       <c r="C129" s="113"/>
       <c r="D129" s="103"/>
       <c r="E129" s="108"/>
@@ -13686,10 +13685,10 @@
       <c r="BN129" s="60"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A130" s="209">
+      <c r="A130" s="194">
         <v>59</v>
       </c>
-      <c r="B130" s="198"/>
+      <c r="B130" s="214"/>
       <c r="C130" s="113"/>
       <c r="D130" s="102" t="s">
         <v>78</v>
@@ -13760,8 +13759,8 @@
       <c r="BN130" s="60"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A131" s="210"/>
-      <c r="B131" s="198"/>
+      <c r="A131" s="195"/>
+      <c r="B131" s="214"/>
       <c r="C131" s="113"/>
       <c r="D131" s="103"/>
       <c r="E131" s="108"/>
@@ -13828,10 +13827,10 @@
       <c r="BN131" s="60"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A132" s="209">
+      <c r="A132" s="194">
         <v>60</v>
       </c>
-      <c r="B132" s="198"/>
+      <c r="B132" s="214"/>
       <c r="C132" s="113"/>
       <c r="D132" s="102" t="s">
         <v>79</v>
@@ -13902,8 +13901,8 @@
       <c r="BN132" s="60"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A133" s="210"/>
-      <c r="B133" s="198"/>
+      <c r="A133" s="195"/>
+      <c r="B133" s="214"/>
       <c r="C133" s="113"/>
       <c r="D133" s="103"/>
       <c r="E133" s="108"/>
@@ -13970,10 +13969,10 @@
       <c r="BN133" s="60"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A134" s="209">
+      <c r="A134" s="194">
         <v>61</v>
       </c>
-      <c r="B134" s="198"/>
+      <c r="B134" s="214"/>
       <c r="C134" s="113"/>
       <c r="D134" s="102" t="s">
         <v>80</v>
@@ -14044,8 +14043,8 @@
       <c r="BN134" s="60"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A135" s="210"/>
-      <c r="B135" s="198"/>
+      <c r="A135" s="195"/>
+      <c r="B135" s="214"/>
       <c r="C135" s="113"/>
       <c r="D135" s="103"/>
       <c r="E135" s="108"/>
@@ -14112,10 +14111,10 @@
       <c r="BN135" s="60"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A136" s="209">
+      <c r="A136" s="194">
         <v>62</v>
       </c>
-      <c r="B136" s="198"/>
+      <c r="B136" s="214"/>
       <c r="C136" s="113"/>
       <c r="D136" s="102" t="s">
         <v>81</v>
@@ -14186,8 +14185,8 @@
       <c r="BN136" s="60"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A137" s="210"/>
-      <c r="B137" s="198"/>
+      <c r="A137" s="195"/>
+      <c r="B137" s="214"/>
       <c r="C137" s="113"/>
       <c r="D137" s="103"/>
       <c r="E137" s="108"/>
@@ -14254,10 +14253,10 @@
       <c r="BN137" s="60"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A138" s="209">
+      <c r="A138" s="194">
         <v>63</v>
       </c>
-      <c r="B138" s="198"/>
+      <c r="B138" s="214"/>
       <c r="C138" s="113"/>
       <c r="D138" s="102" t="s">
         <v>82</v>
@@ -14328,8 +14327,8 @@
       <c r="BN138" s="60"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A139" s="210"/>
-      <c r="B139" s="198"/>
+      <c r="A139" s="195"/>
+      <c r="B139" s="214"/>
       <c r="C139" s="113"/>
       <c r="D139" s="103"/>
       <c r="E139" s="108"/>
@@ -14396,10 +14395,10 @@
       <c r="BN139" s="63"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A140" s="209">
+      <c r="A140" s="194">
         <v>64</v>
       </c>
-      <c r="B140" s="198"/>
+      <c r="B140" s="214"/>
       <c r="C140" s="113"/>
       <c r="D140" s="102" t="s">
         <v>83</v>
@@ -14470,8 +14469,8 @@
       <c r="BN140" s="59"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A141" s="210"/>
-      <c r="B141" s="198"/>
+      <c r="A141" s="195"/>
+      <c r="B141" s="214"/>
       <c r="C141" s="113"/>
       <c r="D141" s="103"/>
       <c r="E141" s="108"/>
@@ -14538,10 +14537,10 @@
       <c r="BN141" s="60"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A142" s="209">
+      <c r="A142" s="194">
         <v>65</v>
       </c>
-      <c r="B142" s="198"/>
+      <c r="B142" s="214"/>
       <c r="C142" s="113"/>
       <c r="D142" s="102" t="s">
         <v>84</v>
@@ -14612,8 +14611,8 @@
       <c r="BN142" s="63"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A143" s="210"/>
-      <c r="B143" s="198"/>
+      <c r="A143" s="195"/>
+      <c r="B143" s="214"/>
       <c r="C143" s="113"/>
       <c r="D143" s="103"/>
       <c r="E143" s="94"/>
@@ -14680,10 +14679,10 @@
       <c r="BN143" s="60"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A144" s="209">
+      <c r="A144" s="194">
         <v>66</v>
       </c>
-      <c r="B144" s="198"/>
+      <c r="B144" s="214"/>
       <c r="C144" s="113"/>
       <c r="D144" s="102" t="s">
         <v>85</v>
@@ -14754,8 +14753,8 @@
       <c r="BN144" s="63"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A145" s="210"/>
-      <c r="B145" s="198"/>
+      <c r="A145" s="195"/>
+      <c r="B145" s="214"/>
       <c r="C145" s="113"/>
       <c r="D145" s="103"/>
       <c r="E145" s="94"/>
@@ -14822,10 +14821,10 @@
       <c r="BN145" s="60"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A146" s="209">
+      <c r="A146" s="194">
         <v>67</v>
       </c>
-      <c r="B146" s="198"/>
+      <c r="B146" s="214"/>
       <c r="C146" s="113"/>
       <c r="D146" s="102" t="s">
         <v>86</v>
@@ -14896,8 +14895,8 @@
       <c r="BN146" s="63"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A147" s="210"/>
-      <c r="B147" s="198"/>
+      <c r="A147" s="195"/>
+      <c r="B147" s="214"/>
       <c r="C147" s="113"/>
       <c r="D147" s="103"/>
       <c r="E147" s="94"/>
@@ -14964,10 +14963,10 @@
       <c r="BN147" s="60"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A148" s="209">
+      <c r="A148" s="194">
         <v>68</v>
       </c>
-      <c r="B148" s="198"/>
+      <c r="B148" s="214"/>
       <c r="C148" s="113"/>
       <c r="D148" s="102" t="s">
         <v>87</v>
@@ -15038,8 +15037,8 @@
       <c r="BN148" s="63"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A149" s="210"/>
-      <c r="B149" s="198"/>
+      <c r="A149" s="195"/>
+      <c r="B149" s="214"/>
       <c r="C149" s="113"/>
       <c r="D149" s="103"/>
       <c r="E149" s="94"/>
@@ -15106,10 +15105,10 @@
       <c r="BN149" s="60"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A150" s="209">
+      <c r="A150" s="194">
         <v>69</v>
       </c>
-      <c r="B150" s="198"/>
+      <c r="B150" s="214"/>
       <c r="C150" s="113"/>
       <c r="D150" s="102" t="s">
         <v>88</v>
@@ -15180,8 +15179,8 @@
       <c r="BN150" s="63"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A151" s="210"/>
-      <c r="B151" s="198"/>
+      <c r="A151" s="195"/>
+      <c r="B151" s="214"/>
       <c r="C151" s="113"/>
       <c r="D151" s="103"/>
       <c r="E151" s="94"/>
@@ -15248,10 +15247,10 @@
       <c r="BN151" s="60"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A152" s="209">
+      <c r="A152" s="194">
         <v>70</v>
       </c>
-      <c r="B152" s="198"/>
+      <c r="B152" s="214"/>
       <c r="C152" s="110" t="s">
         <v>151</v>
       </c>
@@ -15324,8 +15323,8 @@
       <c r="BN152" s="63"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A153" s="210"/>
-      <c r="B153" s="198"/>
+      <c r="A153" s="195"/>
+      <c r="B153" s="214"/>
       <c r="C153" s="113"/>
       <c r="D153" s="132"/>
       <c r="E153" s="108"/>
@@ -15392,10 +15391,10 @@
       <c r="BN153" s="60"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A154" s="209">
+      <c r="A154" s="194">
         <v>71</v>
       </c>
-      <c r="B154" s="198"/>
+      <c r="B154" s="214"/>
       <c r="C154" s="113"/>
       <c r="D154" s="135" t="s">
         <v>152</v>
@@ -15466,8 +15465,8 @@
       <c r="BN154" s="60"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A155" s="210"/>
-      <c r="B155" s="198"/>
+      <c r="A155" s="195"/>
+      <c r="B155" s="214"/>
       <c r="C155" s="113"/>
       <c r="D155" s="136"/>
       <c r="E155" s="114"/>
@@ -15534,12 +15533,12 @@
       <c r="BN155" s="60"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A156" s="209">
+      <c r="A156" s="194">
         <v>72</v>
       </c>
-      <c r="B156" s="198"/>
+      <c r="B156" s="214"/>
       <c r="C156" s="113"/>
-      <c r="D156" s="206" t="s">
+      <c r="D156" s="246" t="s">
         <v>147</v>
       </c>
       <c r="E156" s="96"/>
@@ -15608,10 +15607,10 @@
       <c r="BN156" s="63"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A157" s="210"/>
-      <c r="B157" s="198"/>
+      <c r="A157" s="195"/>
+      <c r="B157" s="214"/>
       <c r="C157" s="113"/>
-      <c r="D157" s="207"/>
+      <c r="D157" s="247"/>
       <c r="E157" s="108"/>
       <c r="F157" s="52"/>
       <c r="G157" s="25"/>
@@ -15676,12 +15675,12 @@
       <c r="BN157" s="60"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A158" s="209">
+      <c r="A158" s="194">
         <v>73</v>
       </c>
-      <c r="B158" s="198"/>
+      <c r="B158" s="214"/>
       <c r="C158" s="113"/>
-      <c r="D158" s="201" t="s">
+      <c r="D158" s="241" t="s">
         <v>39</v>
       </c>
       <c r="E158" s="96"/>
@@ -15750,10 +15749,10 @@
       <c r="BN158" s="63"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A159" s="210"/>
-      <c r="B159" s="198"/>
+      <c r="A159" s="195"/>
+      <c r="B159" s="214"/>
       <c r="C159" s="113"/>
-      <c r="D159" s="208"/>
+      <c r="D159" s="248"/>
       <c r="E159" s="108"/>
       <c r="F159" s="52"/>
       <c r="G159" s="25"/>
@@ -15818,10 +15817,10 @@
       <c r="BN159" s="60"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A160" s="209">
+      <c r="A160" s="194">
         <v>74</v>
       </c>
-      <c r="B160" s="198"/>
+      <c r="B160" s="214"/>
       <c r="C160" s="113"/>
       <c r="D160" s="131" t="s">
         <v>40</v>
@@ -15892,8 +15891,8 @@
       <c r="BN160" s="63"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A161" s="210"/>
-      <c r="B161" s="198"/>
+      <c r="A161" s="195"/>
+      <c r="B161" s="214"/>
       <c r="C161" s="113"/>
       <c r="D161" s="132"/>
       <c r="E161" s="108"/>
@@ -15960,10 +15959,10 @@
       <c r="BN161" s="60"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A162" s="209">
+      <c r="A162" s="194">
         <v>75</v>
       </c>
-      <c r="B162" s="198"/>
+      <c r="B162" s="214"/>
       <c r="C162" s="113"/>
       <c r="D162" s="131" t="s">
         <v>41</v>
@@ -16034,8 +16033,8 @@
       <c r="BN162" s="60"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A163" s="210"/>
-      <c r="B163" s="198"/>
+      <c r="A163" s="195"/>
+      <c r="B163" s="214"/>
       <c r="C163" s="113"/>
       <c r="D163" s="132"/>
       <c r="E163" s="108"/>
@@ -16102,10 +16101,10 @@
       <c r="BN163" s="60"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A164" s="209">
+      <c r="A164" s="194">
         <v>76</v>
       </c>
-      <c r="B164" s="198"/>
+      <c r="B164" s="214"/>
       <c r="C164" s="113"/>
       <c r="D164" s="131" t="s">
         <v>42</v>
@@ -16176,8 +16175,8 @@
       <c r="BN164" s="60"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A165" s="210"/>
-      <c r="B165" s="198"/>
+      <c r="A165" s="195"/>
+      <c r="B165" s="214"/>
       <c r="C165" s="113"/>
       <c r="D165" s="132"/>
       <c r="E165" s="108"/>
@@ -16244,10 +16243,10 @@
       <c r="BN165" s="60"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A166" s="209">
+      <c r="A166" s="194">
         <v>77</v>
       </c>
-      <c r="B166" s="198"/>
+      <c r="B166" s="214"/>
       <c r="C166" s="113"/>
       <c r="D166" s="131" t="s">
         <v>43</v>
@@ -16318,8 +16317,8 @@
       <c r="BN166" s="60"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A167" s="210"/>
-      <c r="B167" s="198"/>
+      <c r="A167" s="195"/>
+      <c r="B167" s="214"/>
       <c r="C167" s="113"/>
       <c r="D167" s="132"/>
       <c r="E167" s="108"/>
@@ -16386,10 +16385,10 @@
       <c r="BN167" s="60"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A168" s="209">
+      <c r="A168" s="194">
         <v>78</v>
       </c>
-      <c r="B168" s="198"/>
+      <c r="B168" s="214"/>
       <c r="C168" s="113"/>
       <c r="D168" s="131" t="s">
         <v>44</v>
@@ -16460,8 +16459,8 @@
       <c r="BN168" s="60"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A169" s="210"/>
-      <c r="B169" s="198"/>
+      <c r="A169" s="195"/>
+      <c r="B169" s="214"/>
       <c r="C169" s="113"/>
       <c r="D169" s="132"/>
       <c r="E169" s="108"/>
@@ -16528,10 +16527,10 @@
       <c r="BN169" s="60"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A170" s="209">
+      <c r="A170" s="194">
         <v>79</v>
       </c>
-      <c r="B170" s="198"/>
+      <c r="B170" s="214"/>
       <c r="C170" s="113"/>
       <c r="D170" s="131" t="s">
         <v>45</v>
@@ -16602,8 +16601,8 @@
       <c r="BN170" s="60"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A171" s="210"/>
-      <c r="B171" s="198"/>
+      <c r="A171" s="195"/>
+      <c r="B171" s="214"/>
       <c r="C171" s="113"/>
       <c r="D171" s="132"/>
       <c r="E171" s="108"/>
@@ -16670,10 +16669,10 @@
       <c r="BN171" s="60"/>
     </row>
     <row r="172" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A172" s="209">
+      <c r="A172" s="194">
         <v>80</v>
       </c>
-      <c r="B172" s="198"/>
+      <c r="B172" s="214"/>
       <c r="C172" s="113"/>
       <c r="D172" s="131" t="s">
         <v>46</v>
@@ -16744,8 +16743,8 @@
       <c r="BN172" s="60"/>
     </row>
     <row r="173" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A173" s="210"/>
-      <c r="B173" s="198"/>
+      <c r="A173" s="195"/>
+      <c r="B173" s="214"/>
       <c r="C173" s="113"/>
       <c r="D173" s="132"/>
       <c r="E173" s="108"/>
@@ -16812,10 +16811,10 @@
       <c r="BN173" s="60"/>
     </row>
     <row r="174" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A174" s="209">
+      <c r="A174" s="194">
         <v>81</v>
       </c>
-      <c r="B174" s="198"/>
+      <c r="B174" s="214"/>
       <c r="C174" s="113"/>
       <c r="D174" s="131" t="s">
         <v>47</v>
@@ -16886,8 +16885,8 @@
       <c r="BN174" s="60"/>
     </row>
     <row r="175" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A175" s="210"/>
-      <c r="B175" s="198"/>
+      <c r="A175" s="195"/>
+      <c r="B175" s="214"/>
       <c r="C175" s="113"/>
       <c r="D175" s="132"/>
       <c r="E175" s="108"/>
@@ -16954,10 +16953,10 @@
       <c r="BN175" s="60"/>
     </row>
     <row r="176" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A176" s="209">
+      <c r="A176" s="194">
         <v>82</v>
       </c>
-      <c r="B176" s="198"/>
+      <c r="B176" s="214"/>
       <c r="C176" s="113"/>
       <c r="D176" s="131" t="s">
         <v>48</v>
@@ -17028,8 +17027,8 @@
       <c r="BN176" s="60"/>
     </row>
     <row r="177" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A177" s="210"/>
-      <c r="B177" s="198"/>
+      <c r="A177" s="195"/>
+      <c r="B177" s="214"/>
       <c r="C177" s="113"/>
       <c r="D177" s="132"/>
       <c r="E177" s="108"/>
@@ -17096,10 +17095,10 @@
       <c r="BN177" s="60"/>
     </row>
     <row r="178" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A178" s="209">
+      <c r="A178" s="194">
         <v>83</v>
       </c>
-      <c r="B178" s="198"/>
+      <c r="B178" s="214"/>
       <c r="C178" s="113"/>
       <c r="D178" s="131" t="s">
         <v>49</v>
@@ -17170,8 +17169,8 @@
       <c r="BN178" s="60"/>
     </row>
     <row r="179" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A179" s="210"/>
-      <c r="B179" s="198"/>
+      <c r="A179" s="195"/>
+      <c r="B179" s="214"/>
       <c r="C179" s="113"/>
       <c r="D179" s="132"/>
       <c r="E179" s="108"/>
@@ -17238,10 +17237,10 @@
       <c r="BN179" s="60"/>
     </row>
     <row r="180" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A180" s="209">
+      <c r="A180" s="194">
         <v>84</v>
       </c>
-      <c r="B180" s="198"/>
+      <c r="B180" s="214"/>
       <c r="C180" s="113"/>
       <c r="D180" s="131" t="s">
         <v>50</v>
@@ -17312,8 +17311,8 @@
       <c r="BN180" s="60"/>
     </row>
     <row r="181" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A181" s="210"/>
-      <c r="B181" s="198"/>
+      <c r="A181" s="195"/>
+      <c r="B181" s="214"/>
       <c r="C181" s="113"/>
       <c r="D181" s="132"/>
       <c r="E181" s="108"/>
@@ -17380,10 +17379,10 @@
       <c r="BN181" s="60"/>
     </row>
     <row r="182" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A182" s="209">
+      <c r="A182" s="194">
         <v>85</v>
       </c>
-      <c r="B182" s="198"/>
+      <c r="B182" s="214"/>
       <c r="C182" s="113"/>
       <c r="D182" s="131" t="s">
         <v>51</v>
@@ -17454,8 +17453,8 @@
       <c r="BN182" s="60"/>
     </row>
     <row r="183" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A183" s="210"/>
-      <c r="B183" s="198"/>
+      <c r="A183" s="195"/>
+      <c r="B183" s="214"/>
       <c r="C183" s="113"/>
       <c r="D183" s="132"/>
       <c r="E183" s="108"/>
@@ -17522,10 +17521,10 @@
       <c r="BN183" s="60"/>
     </row>
     <row r="184" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A184" s="209">
+      <c r="A184" s="194">
         <v>86</v>
       </c>
-      <c r="B184" s="198"/>
+      <c r="B184" s="214"/>
       <c r="C184" s="113"/>
       <c r="D184" s="131" t="s">
         <v>52</v>
@@ -17596,8 +17595,8 @@
       <c r="BN184" s="60"/>
     </row>
     <row r="185" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A185" s="210"/>
-      <c r="B185" s="198"/>
+      <c r="A185" s="195"/>
+      <c r="B185" s="214"/>
       <c r="C185" s="113"/>
       <c r="D185" s="132"/>
       <c r="E185" s="108"/>
@@ -17664,10 +17663,10 @@
       <c r="BN185" s="63"/>
     </row>
     <row r="186" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A186" s="209">
+      <c r="A186" s="194">
         <v>87</v>
       </c>
-      <c r="B186" s="198"/>
+      <c r="B186" s="214"/>
       <c r="C186" s="113"/>
       <c r="D186" s="131" t="s">
         <v>53</v>
@@ -17738,8 +17737,8 @@
       <c r="BN186" s="59"/>
     </row>
     <row r="187" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A187" s="210"/>
-      <c r="B187" s="198"/>
+      <c r="A187" s="195"/>
+      <c r="B187" s="214"/>
       <c r="C187" s="113"/>
       <c r="D187" s="132"/>
       <c r="E187" s="108"/>
@@ -17806,10 +17805,10 @@
       <c r="BN187" s="60"/>
     </row>
     <row r="188" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A188" s="209">
+      <c r="A188" s="194">
         <v>88</v>
       </c>
-      <c r="B188" s="198"/>
+      <c r="B188" s="214"/>
       <c r="C188" s="113"/>
       <c r="D188" s="131" t="s">
         <v>54</v>
@@ -17880,8 +17879,8 @@
       <c r="BN188" s="63"/>
     </row>
     <row r="189" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A189" s="210"/>
-      <c r="B189" s="198"/>
+      <c r="A189" s="195"/>
+      <c r="B189" s="214"/>
       <c r="C189" s="113"/>
       <c r="D189" s="132"/>
       <c r="E189" s="94"/>
@@ -17948,10 +17947,10 @@
       <c r="BN189" s="60"/>
     </row>
     <row r="190" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A190" s="209">
+      <c r="A190" s="194">
         <v>89</v>
       </c>
-      <c r="B190" s="198"/>
+      <c r="B190" s="214"/>
       <c r="C190" s="113"/>
       <c r="D190" s="131" t="s">
         <v>55</v>
@@ -18022,8 +18021,8 @@
       <c r="BN190" s="63"/>
     </row>
     <row r="191" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A191" s="210"/>
-      <c r="B191" s="198"/>
+      <c r="A191" s="195"/>
+      <c r="B191" s="214"/>
       <c r="C191" s="113"/>
       <c r="D191" s="132"/>
       <c r="E191" s="94"/>
@@ -18090,10 +18089,10 @@
       <c r="BN191" s="60"/>
     </row>
     <row r="192" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A192" s="209">
+      <c r="A192" s="194">
         <v>90</v>
       </c>
-      <c r="B192" s="198"/>
+      <c r="B192" s="214"/>
       <c r="C192" s="113"/>
       <c r="D192" s="131" t="s">
         <v>56</v>
@@ -18164,8 +18163,8 @@
       <c r="BN192" s="63"/>
     </row>
     <row r="193" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A193" s="210"/>
-      <c r="B193" s="198"/>
+      <c r="A193" s="195"/>
+      <c r="B193" s="214"/>
       <c r="C193" s="113"/>
       <c r="D193" s="132"/>
       <c r="E193" s="94"/>
@@ -18232,10 +18231,10 @@
       <c r="BN193" s="60"/>
     </row>
     <row r="194" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A194" s="209">
+      <c r="A194" s="194">
         <v>91</v>
       </c>
-      <c r="B194" s="198"/>
+      <c r="B194" s="214"/>
       <c r="C194" s="113"/>
       <c r="D194" s="131" t="s">
         <v>57</v>
@@ -18306,8 +18305,8 @@
       <c r="BN194" s="63"/>
     </row>
     <row r="195" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A195" s="210"/>
-      <c r="B195" s="198"/>
+      <c r="A195" s="195"/>
+      <c r="B195" s="214"/>
       <c r="C195" s="113"/>
       <c r="D195" s="132"/>
       <c r="E195" s="94"/>
@@ -18374,11 +18373,11 @@
       <c r="BN195" s="60"/>
     </row>
     <row r="196" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A196" s="209">
+      <c r="A196" s="194">
         <v>92</v>
       </c>
-      <c r="B196" s="198"/>
-      <c r="C196" s="201" t="s">
+      <c r="B196" s="214"/>
+      <c r="C196" s="241" t="s">
         <v>89</v>
       </c>
       <c r="D196" s="102" t="s">
@@ -18452,9 +18451,9 @@
       <c r="BN196" s="63"/>
     </row>
     <row r="197" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A197" s="210"/>
-      <c r="B197" s="198"/>
-      <c r="C197" s="196"/>
+      <c r="A197" s="195"/>
+      <c r="B197" s="214"/>
+      <c r="C197" s="206"/>
       <c r="D197" s="103"/>
       <c r="E197" s="108"/>
       <c r="F197" s="52"/>
@@ -18520,11 +18519,11 @@
       <c r="BN197" s="60"/>
     </row>
     <row r="198" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A198" s="209">
+      <c r="A198" s="194">
         <v>93</v>
       </c>
-      <c r="B198" s="198"/>
-      <c r="C198" s="196"/>
+      <c r="B198" s="214"/>
+      <c r="C198" s="206"/>
       <c r="D198" s="102" t="s">
         <v>62</v>
       </c>
@@ -18596,9 +18595,9 @@
       <c r="BN198" s="63"/>
     </row>
     <row r="199" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A199" s="210"/>
-      <c r="B199" s="198"/>
-      <c r="C199" s="196"/>
+      <c r="A199" s="195"/>
+      <c r="B199" s="214"/>
+      <c r="C199" s="206"/>
       <c r="D199" s="103"/>
       <c r="E199" s="108"/>
       <c r="F199" s="52"/>
@@ -18664,11 +18663,11 @@
       <c r="BN199" s="60"/>
     </row>
     <row r="200" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A200" s="209">
+      <c r="A200" s="194">
         <v>94</v>
       </c>
-      <c r="B200" s="198"/>
-      <c r="C200" s="196"/>
+      <c r="B200" s="214"/>
+      <c r="C200" s="206"/>
       <c r="D200" s="102" t="s">
         <v>64</v>
       </c>
@@ -18738,9 +18737,9 @@
       <c r="BN200" s="63"/>
     </row>
     <row r="201" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A201" s="210"/>
-      <c r="B201" s="198"/>
-      <c r="C201" s="196"/>
+      <c r="A201" s="195"/>
+      <c r="B201" s="214"/>
+      <c r="C201" s="206"/>
       <c r="D201" s="103"/>
       <c r="E201" s="108"/>
       <c r="F201" s="52"/>
@@ -18806,11 +18805,11 @@
       <c r="BN201" s="60"/>
     </row>
     <row r="202" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A202" s="209">
+      <c r="A202" s="194">
         <v>95</v>
       </c>
-      <c r="B202" s="198"/>
-      <c r="C202" s="196"/>
+      <c r="B202" s="214"/>
+      <c r="C202" s="206"/>
       <c r="D202" s="102" t="s">
         <v>65</v>
       </c>
@@ -18880,9 +18879,9 @@
       <c r="BN202" s="63"/>
     </row>
     <row r="203" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A203" s="210"/>
-      <c r="B203" s="198"/>
-      <c r="C203" s="196"/>
+      <c r="A203" s="195"/>
+      <c r="B203" s="214"/>
+      <c r="C203" s="206"/>
       <c r="D203" s="103"/>
       <c r="E203" s="108"/>
       <c r="F203" s="52"/>
@@ -18948,11 +18947,11 @@
       <c r="BN203" s="60"/>
     </row>
     <row r="204" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A204" s="209">
+      <c r="A204" s="194">
         <v>96</v>
       </c>
-      <c r="B204" s="198"/>
-      <c r="C204" s="196"/>
+      <c r="B204" s="214"/>
+      <c r="C204" s="206"/>
       <c r="D204" s="106" t="s">
         <v>155</v>
       </c>
@@ -19022,9 +19021,9 @@
       <c r="BN204" s="60"/>
     </row>
     <row r="205" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A205" s="210"/>
-      <c r="B205" s="198"/>
-      <c r="C205" s="196"/>
+      <c r="A205" s="195"/>
+      <c r="B205" s="214"/>
+      <c r="C205" s="206"/>
       <c r="D205" s="107"/>
       <c r="E205" s="108"/>
       <c r="F205" s="52"/>
@@ -19090,11 +19089,11 @@
       <c r="BN205" s="60"/>
     </row>
     <row r="206" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A206" s="209">
+      <c r="A206" s="194">
         <v>97</v>
       </c>
-      <c r="B206" s="198"/>
-      <c r="C206" s="196"/>
+      <c r="B206" s="214"/>
+      <c r="C206" s="206"/>
       <c r="D206" s="102" t="s">
         <v>67</v>
       </c>
@@ -19164,9 +19163,9 @@
       <c r="BN206" s="60"/>
     </row>
     <row r="207" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A207" s="210"/>
-      <c r="B207" s="198"/>
-      <c r="C207" s="202"/>
+      <c r="A207" s="195"/>
+      <c r="B207" s="214"/>
+      <c r="C207" s="242"/>
       <c r="D207" s="103"/>
       <c r="E207" s="108"/>
       <c r="F207" s="52"/>
@@ -19232,11 +19231,11 @@
       <c r="BN207" s="60"/>
     </row>
     <row r="208" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A208" s="209">
+      <c r="A208" s="194">
         <v>98</v>
       </c>
-      <c r="B208" s="198"/>
-      <c r="C208" s="195" t="s">
+      <c r="B208" s="214"/>
+      <c r="C208" s="239" t="s">
         <v>90</v>
       </c>
       <c r="D208" s="102" t="s">
@@ -19310,9 +19309,9 @@
       <c r="BN208" s="63"/>
     </row>
     <row r="209" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A209" s="210"/>
-      <c r="B209" s="199"/>
-      <c r="C209" s="196"/>
+      <c r="A209" s="195"/>
+      <c r="B209" s="215"/>
+      <c r="C209" s="206"/>
       <c r="D209" s="103"/>
       <c r="E209" s="108"/>
       <c r="F209" s="52"/>
@@ -19378,7 +19377,7 @@
       <c r="BN209" s="60"/>
     </row>
     <row r="210" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A210" s="209">
+      <c r="A210" s="194">
         <v>99</v>
       </c>
       <c r="B210" s="97" t="s">
@@ -19456,7 +19455,7 @@
       <c r="BN210" s="61"/>
     </row>
     <row r="211" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A211" s="210"/>
+      <c r="A211" s="195"/>
       <c r="B211" s="98"/>
       <c r="C211" s="105"/>
       <c r="D211" s="103"/>
@@ -19524,7 +19523,7 @@
       <c r="BN211" s="60"/>
     </row>
     <row r="212" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A212" s="209">
+      <c r="A212" s="194">
         <v>100</v>
       </c>
       <c r="B212" s="98"/>
@@ -19598,7 +19597,7 @@
       <c r="BN212" s="63"/>
     </row>
     <row r="213" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A213" s="210"/>
+      <c r="A213" s="195"/>
       <c r="B213" s="98"/>
       <c r="C213" s="105"/>
       <c r="D213" s="103"/>
@@ -19666,7 +19665,7 @@
       <c r="BN213" s="60"/>
     </row>
     <row r="214" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A214" s="209">
+      <c r="A214" s="194">
         <v>101</v>
       </c>
       <c r="B214" s="98"/>
@@ -19740,7 +19739,7 @@
       <c r="BN214" s="63"/>
     </row>
     <row r="215" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A215" s="210"/>
+      <c r="A215" s="195"/>
       <c r="B215" s="98"/>
       <c r="C215" s="105"/>
       <c r="D215" s="103"/>
@@ -19808,7 +19807,7 @@
       <c r="BN215" s="60"/>
     </row>
     <row r="216" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A216" s="209">
+      <c r="A216" s="194">
         <v>102</v>
       </c>
       <c r="B216" s="98"/>
@@ -19882,7 +19881,7 @@
       <c r="BN216" s="63"/>
     </row>
     <row r="217" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A217" s="210"/>
+      <c r="A217" s="195"/>
       <c r="B217" s="98"/>
       <c r="C217" s="105"/>
       <c r="D217" s="103"/>
@@ -19950,7 +19949,7 @@
       <c r="BN217" s="60"/>
     </row>
     <row r="218" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A218" s="209">
+      <c r="A218" s="194">
         <v>103</v>
       </c>
       <c r="B218" s="98"/>
@@ -20024,7 +20023,7 @@
       <c r="BN218" s="63"/>
     </row>
     <row r="219" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A219" s="210"/>
+      <c r="A219" s="195"/>
       <c r="B219" s="98"/>
       <c r="C219" s="105"/>
       <c r="D219" s="103"/>
@@ -20092,7 +20091,7 @@
       <c r="BN219" s="60"/>
     </row>
     <row r="220" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A220" s="209">
+      <c r="A220" s="194">
         <v>104</v>
       </c>
       <c r="B220" s="98"/>
@@ -20166,7 +20165,7 @@
       <c r="BN220" s="63"/>
     </row>
     <row r="221" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A221" s="210"/>
+      <c r="A221" s="195"/>
       <c r="B221" s="98"/>
       <c r="C221" s="105"/>
       <c r="D221" s="103"/>
@@ -20234,7 +20233,7 @@
       <c r="BN221" s="60"/>
     </row>
     <row r="222" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A222" s="209">
+      <c r="A222" s="194">
         <v>105</v>
       </c>
       <c r="B222" s="98"/>
@@ -20308,7 +20307,7 @@
       <c r="BN222" s="60"/>
     </row>
     <row r="223" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A223" s="210"/>
+      <c r="A223" s="195"/>
       <c r="B223" s="98"/>
       <c r="C223" s="105"/>
       <c r="D223" s="101"/>
@@ -20376,7 +20375,7 @@
       <c r="BN223" s="60"/>
     </row>
     <row r="224" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A224" s="209">
+      <c r="A224" s="194">
         <v>106</v>
       </c>
       <c r="B224" s="98"/>
@@ -20452,7 +20451,7 @@
       <c r="BN224" s="63"/>
     </row>
     <row r="225" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A225" s="210"/>
+      <c r="A225" s="195"/>
       <c r="B225" s="98"/>
       <c r="C225" s="113"/>
       <c r="D225" s="103"/>
@@ -20520,7 +20519,7 @@
       <c r="BN225" s="60"/>
     </row>
     <row r="226" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A226" s="209">
+      <c r="A226" s="194">
         <v>107</v>
       </c>
       <c r="B226" s="98"/>
@@ -20594,7 +20593,7 @@
       <c r="BN226" s="63"/>
     </row>
     <row r="227" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A227" s="210"/>
+      <c r="A227" s="195"/>
       <c r="B227" s="98"/>
       <c r="C227" s="113"/>
       <c r="D227" s="103"/>
@@ -20662,7 +20661,7 @@
       <c r="BN227" s="60"/>
     </row>
     <row r="228" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A228" s="209">
+      <c r="A228" s="194">
         <v>108</v>
       </c>
       <c r="B228" s="98"/>
@@ -20736,7 +20735,7 @@
       <c r="BN228" s="63"/>
     </row>
     <row r="229" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A229" s="210"/>
+      <c r="A229" s="195"/>
       <c r="B229" s="98"/>
       <c r="C229" s="113"/>
       <c r="D229" s="103"/>
@@ -20804,7 +20803,7 @@
       <c r="BN229" s="60"/>
     </row>
     <row r="230" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A230" s="209">
+      <c r="A230" s="194">
         <v>109</v>
       </c>
       <c r="B230" s="98"/>
@@ -20878,7 +20877,7 @@
       <c r="BN230" s="63"/>
     </row>
     <row r="231" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A231" s="210"/>
+      <c r="A231" s="195"/>
       <c r="B231" s="98"/>
       <c r="C231" s="113"/>
       <c r="D231" s="103"/>
@@ -20946,7 +20945,7 @@
       <c r="BN231" s="60"/>
     </row>
     <row r="232" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A232" s="209">
+      <c r="A232" s="194">
         <v>110</v>
       </c>
       <c r="B232" s="98"/>
@@ -21020,7 +21019,7 @@
       <c r="BN232" s="60"/>
     </row>
     <row r="233" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A233" s="210"/>
+      <c r="A233" s="195"/>
       <c r="B233" s="98"/>
       <c r="C233" s="113"/>
       <c r="D233" s="103"/>
@@ -21088,7 +21087,7 @@
       <c r="BN233" s="60"/>
     </row>
     <row r="234" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A234" s="209">
+      <c r="A234" s="194">
         <v>111</v>
       </c>
       <c r="B234" s="98"/>
@@ -21162,7 +21161,7 @@
       <c r="BN234" s="60"/>
     </row>
     <row r="235" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A235" s="210"/>
+      <c r="A235" s="195"/>
       <c r="B235" s="98"/>
       <c r="C235" s="113"/>
       <c r="D235" s="103"/>
@@ -21230,7 +21229,7 @@
       <c r="BN235" s="60"/>
     </row>
     <row r="236" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A236" s="209">
+      <c r="A236" s="194">
         <v>112</v>
       </c>
       <c r="B236" s="98"/>
@@ -21304,7 +21303,7 @@
       <c r="BN236" s="60"/>
     </row>
     <row r="237" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A237" s="210"/>
+      <c r="A237" s="195"/>
       <c r="B237" s="98"/>
       <c r="C237" s="113"/>
       <c r="D237" s="103"/>
@@ -21372,7 +21371,7 @@
       <c r="BN237" s="60"/>
     </row>
     <row r="238" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A238" s="209">
+      <c r="A238" s="194">
         <v>113</v>
       </c>
       <c r="B238" s="98"/>
@@ -21446,7 +21445,7 @@
       <c r="BN238" s="60"/>
     </row>
     <row r="239" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A239" s="210"/>
+      <c r="A239" s="195"/>
       <c r="B239" s="98"/>
       <c r="C239" s="113"/>
       <c r="D239" s="107"/>
@@ -21514,7 +21513,7 @@
       <c r="BN239" s="60"/>
     </row>
     <row r="240" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A240" s="209">
+      <c r="A240" s="194">
         <v>114</v>
       </c>
       <c r="B240" s="98"/>
@@ -21588,7 +21587,7 @@
       <c r="BN240" s="60"/>
     </row>
     <row r="241" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A241" s="210"/>
+      <c r="A241" s="195"/>
       <c r="B241" s="98"/>
       <c r="C241" s="113"/>
       <c r="D241" s="103"/>
@@ -21656,7 +21655,7 @@
       <c r="BN241" s="60"/>
     </row>
     <row r="242" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A242" s="209">
+      <c r="A242" s="194">
         <v>115</v>
       </c>
       <c r="B242" s="98"/>
@@ -21730,7 +21729,7 @@
       <c r="BN242" s="60"/>
     </row>
     <row r="243" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A243" s="210"/>
+      <c r="A243" s="195"/>
       <c r="B243" s="98"/>
       <c r="C243" s="113"/>
       <c r="D243" s="103"/>
@@ -21798,7 +21797,7 @@
       <c r="BN243" s="60"/>
     </row>
     <row r="244" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A244" s="209">
+      <c r="A244" s="194">
         <v>116</v>
       </c>
       <c r="B244" s="98"/>
@@ -21872,7 +21871,7 @@
       <c r="BN244" s="60"/>
     </row>
     <row r="245" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A245" s="210"/>
+      <c r="A245" s="195"/>
       <c r="B245" s="98"/>
       <c r="C245" s="113"/>
       <c r="D245" s="103"/>
@@ -21940,7 +21939,7 @@
       <c r="BN245" s="60"/>
     </row>
     <row r="246" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A246" s="209">
+      <c r="A246" s="194">
         <v>117</v>
       </c>
       <c r="B246" s="98"/>
@@ -22014,7 +22013,7 @@
       <c r="BN246" s="60"/>
     </row>
     <row r="247" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A247" s="210"/>
+      <c r="A247" s="195"/>
       <c r="B247" s="98"/>
       <c r="C247" s="113"/>
       <c r="D247" s="103"/>
@@ -22082,7 +22081,7 @@
       <c r="BN247" s="60"/>
     </row>
     <row r="248" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A248" s="209">
+      <c r="A248" s="194">
         <v>118</v>
       </c>
       <c r="B248" s="98"/>
@@ -22156,7 +22155,7 @@
       <c r="BN248" s="60"/>
     </row>
     <row r="249" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A249" s="210"/>
+      <c r="A249" s="195"/>
       <c r="B249" s="98"/>
       <c r="C249" s="113"/>
       <c r="D249" s="103"/>
@@ -22224,7 +22223,7 @@
       <c r="BN249" s="60"/>
     </row>
     <row r="250" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A250" s="209">
+      <c r="A250" s="194">
         <v>119</v>
       </c>
       <c r="B250" s="98"/>
@@ -22298,7 +22297,7 @@
       <c r="BN250" s="60"/>
     </row>
     <row r="251" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A251" s="210"/>
+      <c r="A251" s="195"/>
       <c r="B251" s="98"/>
       <c r="C251" s="113"/>
       <c r="D251" s="103"/>
@@ -22366,7 +22365,7 @@
       <c r="BN251" s="60"/>
     </row>
     <row r="252" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A252" s="209">
+      <c r="A252" s="194">
         <v>120</v>
       </c>
       <c r="B252" s="98"/>
@@ -22440,7 +22439,7 @@
       <c r="BN252" s="60"/>
     </row>
     <row r="253" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A253" s="210"/>
+      <c r="A253" s="195"/>
       <c r="B253" s="98"/>
       <c r="C253" s="113"/>
       <c r="D253" s="103"/>
@@ -22508,7 +22507,7 @@
       <c r="BN253" s="60"/>
     </row>
     <row r="254" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A254" s="209">
+      <c r="A254" s="194">
         <v>121</v>
       </c>
       <c r="B254" s="98"/>
@@ -22582,7 +22581,7 @@
       <c r="BN254" s="60"/>
     </row>
     <row r="255" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A255" s="210"/>
+      <c r="A255" s="195"/>
       <c r="B255" s="98"/>
       <c r="C255" s="113"/>
       <c r="D255" s="103"/>
@@ -22650,7 +22649,7 @@
       <c r="BN255" s="63"/>
     </row>
     <row r="256" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A256" s="209">
+      <c r="A256" s="194">
         <v>122</v>
       </c>
       <c r="B256" s="98"/>
@@ -22724,7 +22723,7 @@
       <c r="BN256" s="59"/>
     </row>
     <row r="257" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A257" s="210"/>
+      <c r="A257" s="195"/>
       <c r="B257" s="98"/>
       <c r="C257" s="113"/>
       <c r="D257" s="103"/>
@@ -22792,7 +22791,7 @@
       <c r="BN257" s="60"/>
     </row>
     <row r="258" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A258" s="209">
+      <c r="A258" s="194">
         <v>123</v>
       </c>
       <c r="B258" s="98"/>
@@ -22866,7 +22865,7 @@
       <c r="BN258" s="63"/>
     </row>
     <row r="259" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A259" s="210"/>
+      <c r="A259" s="195"/>
       <c r="B259" s="98"/>
       <c r="C259" s="113"/>
       <c r="D259" s="103"/>
@@ -22934,7 +22933,7 @@
       <c r="BN259" s="60"/>
     </row>
     <row r="260" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A260" s="209">
+      <c r="A260" s="194">
         <v>124</v>
       </c>
       <c r="B260" s="98"/>
@@ -23008,7 +23007,7 @@
       <c r="BN260" s="63"/>
     </row>
     <row r="261" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A261" s="210"/>
+      <c r="A261" s="195"/>
       <c r="B261" s="98"/>
       <c r="C261" s="113"/>
       <c r="D261" s="103"/>
@@ -23076,7 +23075,7 @@
       <c r="BN261" s="60"/>
     </row>
     <row r="262" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A262" s="209">
+      <c r="A262" s="194">
         <v>125</v>
       </c>
       <c r="B262" s="98"/>
@@ -23150,7 +23149,7 @@
       <c r="BN262" s="63"/>
     </row>
     <row r="263" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A263" s="210"/>
+      <c r="A263" s="195"/>
       <c r="B263" s="98"/>
       <c r="C263" s="113"/>
       <c r="D263" s="103"/>
@@ -23218,7 +23217,7 @@
       <c r="BN263" s="60"/>
     </row>
     <row r="264" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A264" s="209">
+      <c r="A264" s="194">
         <v>126</v>
       </c>
       <c r="B264" s="98"/>
@@ -23292,7 +23291,7 @@
       <c r="BN264" s="63"/>
     </row>
     <row r="265" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A265" s="210"/>
+      <c r="A265" s="195"/>
       <c r="B265" s="98"/>
       <c r="C265" s="113"/>
       <c r="D265" s="103"/>
@@ -23360,7 +23359,7 @@
       <c r="BN265" s="60"/>
     </row>
     <row r="266" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A266" s="209">
+      <c r="A266" s="194">
         <v>127</v>
       </c>
       <c r="B266" s="98"/>
@@ -23434,7 +23433,7 @@
       <c r="BN266" s="63"/>
     </row>
     <row r="267" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A267" s="210"/>
+      <c r="A267" s="195"/>
       <c r="B267" s="98"/>
       <c r="C267" s="113"/>
       <c r="D267" s="103"/>
@@ -23502,7 +23501,7 @@
       <c r="BN267" s="179"/>
     </row>
     <row r="268" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A268" s="209">
+      <c r="A268" s="194">
         <v>128</v>
       </c>
       <c r="B268" s="98"/>
@@ -23578,7 +23577,7 @@
       <c r="BN268" s="178"/>
     </row>
     <row r="269" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A269" s="210"/>
+      <c r="A269" s="195"/>
       <c r="B269" s="98"/>
       <c r="C269" s="128"/>
       <c r="D269" s="132"/>
@@ -23646,7 +23645,7 @@
       <c r="BN269" s="179"/>
     </row>
     <row r="270" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A270" s="209">
+      <c r="A270" s="194">
         <v>129</v>
       </c>
       <c r="B270" s="98"/>
@@ -23720,7 +23719,7 @@
       <c r="BN270" s="178"/>
     </row>
     <row r="271" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A271" s="210"/>
+      <c r="A271" s="195"/>
       <c r="B271" s="98"/>
       <c r="C271" s="128"/>
       <c r="D271" s="136"/>
@@ -23788,12 +23787,12 @@
       <c r="BN271" s="178"/>
     </row>
     <row r="272" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A272" s="209">
+      <c r="A272" s="194">
         <v>130</v>
       </c>
       <c r="B272" s="98"/>
       <c r="C272" s="128"/>
-      <c r="D272" s="206" t="s">
+      <c r="D272" s="246" t="s">
         <v>147</v>
       </c>
       <c r="E272" s="96"/>
@@ -23862,10 +23861,10 @@
       <c r="BN272" s="178"/>
     </row>
     <row r="273" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A273" s="210"/>
+      <c r="A273" s="195"/>
       <c r="B273" s="98"/>
       <c r="C273" s="128"/>
-      <c r="D273" s="207"/>
+      <c r="D273" s="247"/>
       <c r="E273" s="108"/>
       <c r="F273" s="52"/>
       <c r="G273" s="25"/>
@@ -23930,12 +23929,12 @@
       <c r="BN273" s="178"/>
     </row>
     <row r="274" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A274" s="209">
+      <c r="A274" s="194">
         <v>131</v>
       </c>
       <c r="B274" s="98"/>
       <c r="C274" s="128"/>
-      <c r="D274" s="201" t="s">
+      <c r="D274" s="241" t="s">
         <v>39</v>
       </c>
       <c r="E274" s="96"/>
@@ -24004,10 +24003,10 @@
       <c r="BN274" s="178"/>
     </row>
     <row r="275" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A275" s="210"/>
+      <c r="A275" s="195"/>
       <c r="B275" s="98"/>
       <c r="C275" s="128"/>
-      <c r="D275" s="208"/>
+      <c r="D275" s="248"/>
       <c r="E275" s="108"/>
       <c r="F275" s="52"/>
       <c r="G275" s="25"/>
@@ -24072,7 +24071,7 @@
       <c r="BN275" s="178"/>
     </row>
     <row r="276" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A276" s="209">
+      <c r="A276" s="194">
         <v>132</v>
       </c>
       <c r="B276" s="98"/>
@@ -24146,7 +24145,7 @@
       <c r="BN276" s="178"/>
     </row>
     <row r="277" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A277" s="210"/>
+      <c r="A277" s="195"/>
       <c r="B277" s="98"/>
       <c r="C277" s="128"/>
       <c r="D277" s="132"/>
@@ -24214,7 +24213,7 @@
       <c r="BN277" s="178"/>
     </row>
     <row r="278" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A278" s="209">
+      <c r="A278" s="194">
         <v>133</v>
       </c>
       <c r="B278" s="98"/>
@@ -24288,7 +24287,7 @@
       <c r="BN278" s="178"/>
     </row>
     <row r="279" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A279" s="210"/>
+      <c r="A279" s="195"/>
       <c r="B279" s="98"/>
       <c r="C279" s="128"/>
       <c r="D279" s="132"/>
@@ -24356,7 +24355,7 @@
       <c r="BN279" s="178"/>
     </row>
     <row r="280" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A280" s="209">
+      <c r="A280" s="194">
         <v>134</v>
       </c>
       <c r="B280" s="98"/>
@@ -24430,7 +24429,7 @@
       <c r="BN280" s="178"/>
     </row>
     <row r="281" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A281" s="210"/>
+      <c r="A281" s="195"/>
       <c r="B281" s="98"/>
       <c r="C281" s="128"/>
       <c r="D281" s="132"/>
@@ -24498,7 +24497,7 @@
       <c r="BN281" s="178"/>
     </row>
     <row r="282" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A282" s="209">
+      <c r="A282" s="194">
         <v>135</v>
       </c>
       <c r="B282" s="98"/>
@@ -24572,7 +24571,7 @@
       <c r="BN282" s="178"/>
     </row>
     <row r="283" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A283" s="210"/>
+      <c r="A283" s="195"/>
       <c r="B283" s="98"/>
       <c r="C283" s="128"/>
       <c r="D283" s="132"/>
@@ -24640,7 +24639,7 @@
       <c r="BN283" s="178"/>
     </row>
     <row r="284" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A284" s="209">
+      <c r="A284" s="194">
         <v>136</v>
       </c>
       <c r="B284" s="98"/>
@@ -24714,7 +24713,7 @@
       <c r="BN284" s="178"/>
     </row>
     <row r="285" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A285" s="210"/>
+      <c r="A285" s="195"/>
       <c r="B285" s="98"/>
       <c r="C285" s="128"/>
       <c r="D285" s="132"/>
@@ -24782,7 +24781,7 @@
       <c r="BN285" s="178"/>
     </row>
     <row r="286" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A286" s="209">
+      <c r="A286" s="194">
         <v>137</v>
       </c>
       <c r="B286" s="98"/>
@@ -24856,7 +24855,7 @@
       <c r="BN286" s="178"/>
     </row>
     <row r="287" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A287" s="210"/>
+      <c r="A287" s="195"/>
       <c r="B287" s="98"/>
       <c r="C287" s="128"/>
       <c r="D287" s="132"/>
@@ -24924,7 +24923,7 @@
       <c r="BN287" s="178"/>
     </row>
     <row r="288" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A288" s="209">
+      <c r="A288" s="194">
         <v>138</v>
       </c>
       <c r="B288" s="98"/>
@@ -24998,7 +24997,7 @@
       <c r="BN288" s="178"/>
     </row>
     <row r="289" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A289" s="210"/>
+      <c r="A289" s="195"/>
       <c r="B289" s="98"/>
       <c r="C289" s="128"/>
       <c r="D289" s="132"/>
@@ -25066,7 +25065,7 @@
       <c r="BN289" s="178"/>
     </row>
     <row r="290" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A290" s="209">
+      <c r="A290" s="194">
         <v>139</v>
       </c>
       <c r="B290" s="98"/>
@@ -25140,7 +25139,7 @@
       <c r="BN290" s="178"/>
     </row>
     <row r="291" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A291" s="210"/>
+      <c r="A291" s="195"/>
       <c r="B291" s="98"/>
       <c r="C291" s="128"/>
       <c r="D291" s="132"/>
@@ -25208,7 +25207,7 @@
       <c r="BN291" s="178"/>
     </row>
     <row r="292" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A292" s="209">
+      <c r="A292" s="194">
         <v>140</v>
       </c>
       <c r="B292" s="98"/>
@@ -25282,7 +25281,7 @@
       <c r="BN292" s="178"/>
     </row>
     <row r="293" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A293" s="210"/>
+      <c r="A293" s="195"/>
       <c r="B293" s="98"/>
       <c r="C293" s="128"/>
       <c r="D293" s="132"/>
@@ -25350,7 +25349,7 @@
       <c r="BN293" s="178"/>
     </row>
     <row r="294" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A294" s="209">
+      <c r="A294" s="194">
         <v>141</v>
       </c>
       <c r="B294" s="98"/>
@@ -25424,7 +25423,7 @@
       <c r="BN294" s="178"/>
     </row>
     <row r="295" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A295" s="210"/>
+      <c r="A295" s="195"/>
       <c r="B295" s="98"/>
       <c r="C295" s="128"/>
       <c r="D295" s="132"/>
@@ -25492,7 +25491,7 @@
       <c r="BN295" s="60"/>
     </row>
     <row r="296" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A296" s="209">
+      <c r="A296" s="194">
         <v>142</v>
       </c>
       <c r="B296" s="98"/>
@@ -25566,7 +25565,7 @@
       <c r="BN296" s="60"/>
     </row>
     <row r="297" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A297" s="210"/>
+      <c r="A297" s="195"/>
       <c r="B297" s="98"/>
       <c r="C297" s="128"/>
       <c r="D297" s="132"/>
@@ -25634,7 +25633,7 @@
       <c r="BN297" s="60"/>
     </row>
     <row r="298" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A298" s="209">
+      <c r="A298" s="194">
         <v>143</v>
       </c>
       <c r="B298" s="98"/>
@@ -25708,7 +25707,7 @@
       <c r="BN298" s="60"/>
     </row>
     <row r="299" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A299" s="210"/>
+      <c r="A299" s="195"/>
       <c r="B299" s="98"/>
       <c r="C299" s="128"/>
       <c r="D299" s="132"/>
@@ -25776,7 +25775,7 @@
       <c r="BN299" s="60"/>
     </row>
     <row r="300" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A300" s="209">
+      <c r="A300" s="194">
         <v>144</v>
       </c>
       <c r="B300" s="98"/>
@@ -25850,7 +25849,7 @@
       <c r="BN300" s="60"/>
     </row>
     <row r="301" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A301" s="210"/>
+      <c r="A301" s="195"/>
       <c r="B301" s="98"/>
       <c r="C301" s="128"/>
       <c r="D301" s="132"/>
@@ -25918,7 +25917,7 @@
       <c r="BN301" s="64"/>
     </row>
     <row r="302" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A302" s="209">
+      <c r="A302" s="194">
         <v>145</v>
       </c>
       <c r="B302" s="98"/>
@@ -25992,7 +25991,7 @@
       <c r="BN302" s="61"/>
     </row>
     <row r="303" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A303" s="210"/>
+      <c r="A303" s="195"/>
       <c r="B303" s="98"/>
       <c r="C303" s="128"/>
       <c r="D303" s="132"/>
@@ -26060,7 +26059,7 @@
       <c r="BN303" s="60"/>
     </row>
     <row r="304" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A304" s="209">
+      <c r="A304" s="194">
         <v>146</v>
       </c>
       <c r="B304" s="98"/>
@@ -26135,7 +26134,7 @@
       <c r="BR304" s="127"/>
     </row>
     <row r="305" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A305" s="210"/>
+      <c r="A305" s="195"/>
       <c r="B305" s="98"/>
       <c r="C305" s="128"/>
       <c r="D305" s="132"/>
@@ -26203,7 +26202,7 @@
       <c r="BN305" s="60"/>
     </row>
     <row r="306" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A306" s="209">
+      <c r="A306" s="194">
         <v>147</v>
       </c>
       <c r="B306" s="98"/>
@@ -26277,7 +26276,7 @@
       <c r="BN306" s="63"/>
     </row>
     <row r="307" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A307" s="210"/>
+      <c r="A307" s="195"/>
       <c r="B307" s="98"/>
       <c r="C307" s="128"/>
       <c r="D307" s="132"/>
@@ -26345,7 +26344,7 @@
       <c r="BN307" s="60"/>
     </row>
     <row r="308" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A308" s="209">
+      <c r="A308" s="194">
         <v>148</v>
       </c>
       <c r="B308" s="98"/>
@@ -26419,7 +26418,7 @@
       <c r="BN308" s="63"/>
     </row>
     <row r="309" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A309" s="210"/>
+      <c r="A309" s="195"/>
       <c r="B309" s="98"/>
       <c r="C309" s="128"/>
       <c r="D309" s="132"/>
@@ -26487,7 +26486,7 @@
       <c r="BN309" s="60"/>
     </row>
     <row r="310" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A310" s="209">
+      <c r="A310" s="194">
         <v>149</v>
       </c>
       <c r="B310" s="98"/>
@@ -26561,7 +26560,7 @@
       <c r="BN310" s="63"/>
     </row>
     <row r="311" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A311" s="210"/>
+      <c r="A311" s="195"/>
       <c r="B311" s="98"/>
       <c r="C311" s="128"/>
       <c r="D311" s="132"/>
@@ -26629,7 +26628,7 @@
       <c r="BN311" s="60"/>
     </row>
     <row r="312" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A312" s="209">
+      <c r="A312" s="194">
         <v>150</v>
       </c>
       <c r="B312" s="98"/>
@@ -26703,7 +26702,7 @@
       <c r="BN312" s="63"/>
     </row>
     <row r="313" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A313" s="210"/>
+      <c r="A313" s="195"/>
       <c r="B313" s="98"/>
       <c r="C313" s="113"/>
       <c r="D313" s="103"/>
@@ -26771,7 +26770,7 @@
       <c r="BN313" s="60"/>
     </row>
     <row r="314" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A314" s="209">
+      <c r="A314" s="194">
         <v>151</v>
       </c>
       <c r="B314" s="98"/>
@@ -26847,7 +26846,7 @@
       <c r="BN314" s="63"/>
     </row>
     <row r="315" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A315" s="210"/>
+      <c r="A315" s="195"/>
       <c r="B315" s="98"/>
       <c r="C315" s="109"/>
       <c r="D315" s="103"/>
@@ -26915,7 +26914,7 @@
       <c r="BN315" s="60"/>
     </row>
     <row r="316" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A316" s="209">
+      <c r="A316" s="194">
         <v>152</v>
       </c>
       <c r="B316" s="98"/>
@@ -26991,7 +26990,7 @@
       <c r="BN316" s="63"/>
     </row>
     <row r="317" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A317" s="210"/>
+      <c r="A317" s="195"/>
       <c r="B317" s="98"/>
       <c r="C317" s="109"/>
       <c r="D317" s="103"/>
@@ -27059,7 +27058,7 @@
       <c r="BN317" s="60"/>
     </row>
     <row r="318" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A318" s="209">
+      <c r="A318" s="194">
         <v>153</v>
       </c>
       <c r="B318" s="98"/>
@@ -27133,7 +27132,7 @@
       <c r="BN318" s="63"/>
     </row>
     <row r="319" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A319" s="210"/>
+      <c r="A319" s="195"/>
       <c r="B319" s="98"/>
       <c r="C319" s="109"/>
       <c r="D319" s="103"/>
@@ -27201,7 +27200,7 @@
       <c r="BN319" s="60"/>
     </row>
     <row r="320" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A320" s="209">
+      <c r="A320" s="194">
         <v>154</v>
       </c>
       <c r="B320" s="98"/>
@@ -27275,7 +27274,7 @@
       <c r="BN320" s="63"/>
     </row>
     <row r="321" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A321" s="210"/>
+      <c r="A321" s="195"/>
       <c r="B321" s="98"/>
       <c r="C321" s="109"/>
       <c r="D321" s="103"/>
@@ -27343,7 +27342,7 @@
       <c r="BN321" s="60"/>
     </row>
     <row r="322" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A322" s="209">
+      <c r="A322" s="194">
         <v>155</v>
       </c>
       <c r="B322" s="98"/>
@@ -27417,7 +27416,7 @@
       <c r="BN322" s="60"/>
     </row>
     <row r="323" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A323" s="210"/>
+      <c r="A323" s="195"/>
       <c r="B323" s="98"/>
       <c r="C323" s="129"/>
       <c r="D323" s="107"/>
@@ -27485,7 +27484,7 @@
       <c r="BN323" s="60"/>
     </row>
     <row r="324" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A324" s="209">
+      <c r="A324" s="194">
         <v>156</v>
       </c>
       <c r="B324" s="130"/>
@@ -27559,7 +27558,7 @@
       <c r="BN324" s="60"/>
     </row>
     <row r="325" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A325" s="210"/>
+      <c r="A325" s="195"/>
       <c r="B325" s="130"/>
       <c r="C325" s="132"/>
       <c r="D325" s="136"/>
@@ -27627,11 +27626,11 @@
       <c r="BN325" s="60"/>
     </row>
     <row r="326" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A326" s="209">
+      <c r="A326" s="194">
         <v>157</v>
       </c>
       <c r="B326" s="98"/>
-      <c r="C326" s="195" t="s">
+      <c r="C326" s="239" t="s">
         <v>90</v>
       </c>
       <c r="D326" s="102" t="s">
@@ -27705,9 +27704,9 @@
       <c r="BN326" s="63"/>
     </row>
     <row r="327" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A327" s="210"/>
+      <c r="A327" s="195"/>
       <c r="B327" s="99"/>
-      <c r="C327" s="200"/>
+      <c r="C327" s="240"/>
       <c r="D327" s="118"/>
       <c r="E327" s="119"/>
       <c r="F327" s="120"/>
@@ -27810,135 +27809,98 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B94:B209"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C196:C207"/>
+    <mergeCell ref="C50:C93"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B93"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="A10:A11"/>
@@ -27963,100 +27925,137 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B93"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B94:B209"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C196:C207"/>
-    <mergeCell ref="C50:C93"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E72:E73"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -28099,92 +28098,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="277" t="s">
+      <c r="C1" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="283" t="s">
+      <c r="D1" s="250"/>
+      <c r="E1" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="222">
+      <c r="F1" s="208">
         <v>45901</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="223"/>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="222">
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="208">
         <v>45931</v>
       </c>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="223"/>
-      <c r="AN1" s="223"/>
-      <c r="AO1" s="223"/>
-      <c r="AP1" s="223"/>
-      <c r="AQ1" s="223"/>
-      <c r="AR1" s="223"/>
-      <c r="AS1" s="223"/>
-      <c r="AT1" s="223"/>
-      <c r="AU1" s="223"/>
-      <c r="AV1" s="223"/>
-      <c r="AW1" s="223"/>
-      <c r="AX1" s="223"/>
-      <c r="AY1" s="223"/>
-      <c r="AZ1" s="223"/>
-      <c r="BA1" s="223"/>
-      <c r="BB1" s="223"/>
-      <c r="BC1" s="223"/>
-      <c r="BD1" s="223"/>
-      <c r="BE1" s="223"/>
-      <c r="BF1" s="223"/>
-      <c r="BG1" s="223"/>
-      <c r="BH1" s="223"/>
-      <c r="BI1" s="223"/>
-      <c r="BJ1" s="223"/>
-      <c r="BK1" s="223"/>
-      <c r="BL1" s="223"/>
-      <c r="BM1" s="223"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="209"/>
+      <c r="AO1" s="209"/>
+      <c r="AP1" s="209"/>
+      <c r="AQ1" s="209"/>
+      <c r="AR1" s="209"/>
+      <c r="AS1" s="209"/>
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="209"/>
+      <c r="AX1" s="209"/>
+      <c r="AY1" s="209"/>
+      <c r="AZ1" s="209"/>
+      <c r="BA1" s="209"/>
+      <c r="BB1" s="209"/>
+      <c r="BC1" s="209"/>
+      <c r="BD1" s="209"/>
+      <c r="BE1" s="209"/>
+      <c r="BF1" s="209"/>
+      <c r="BG1" s="209"/>
+      <c r="BH1" s="209"/>
+      <c r="BI1" s="209"/>
+      <c r="BJ1" s="209"/>
+      <c r="BK1" s="209"/>
+      <c r="BL1" s="209"/>
+      <c r="BM1" s="209"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="284"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -28371,11 +28370,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="231"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="285"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -28562,17 +28561,17 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="209">
+      <c r="A4" s="194">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="268" t="s">
+      <c r="C4" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="258"/>
-      <c r="E4" s="275"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="50"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -28636,11 +28635,11 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="276"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="263"/>
       <c r="F5" s="52"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -28704,17 +28703,17 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="209">
+      <c r="A6" s="194">
         <v>2</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="271" t="s">
+      <c r="C6" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="266"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="268"/>
       <c r="F6" s="37"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -28778,11 +28777,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="210"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="81"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="262"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="269"/>
       <c r="F7" s="53"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -28846,17 +28845,17 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="209">
+      <c r="A8" s="194">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="271" t="s">
+      <c r="C8" s="264" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="272"/>
-      <c r="E8" s="266"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="268"/>
       <c r="F8" s="37"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -28920,11 +28919,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="210"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="262"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="269"/>
       <c r="F9" s="53"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -28988,17 +28987,17 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="209">
+      <c r="A10" s="194">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="264" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="272"/>
-      <c r="E10" s="266"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="268"/>
       <c r="F10" s="37"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -29062,11 +29061,11 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="210"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="81"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="274"/>
-      <c r="E11" s="262"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="269"/>
       <c r="F11" s="53"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -29130,17 +29129,17 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="209">
+      <c r="A12" s="194">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="266"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="37"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -29204,11 +29203,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="81"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="262"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="269"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -29272,17 +29271,17 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="209">
+      <c r="A14" s="194">
         <v>6</v>
       </c>
       <c r="B14" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="251" t="s">
+      <c r="C14" s="270" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="252"/>
-      <c r="E14" s="266"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="268"/>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -29346,11 +29345,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="210"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="267"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="274"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -29414,15 +29413,15 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="209">
+      <c r="A16" s="194">
         <v>7</v>
       </c>
       <c r="B16" s="80"/>
-      <c r="C16" s="268" t="s">
+      <c r="C16" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="258"/>
-      <c r="E16" s="261"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="275"/>
       <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -29486,11 +29485,11 @@
       <c r="BN16" s="63"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="210"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="267"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="274"/>
       <c r="F17" s="52"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -29554,15 +29553,15 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="209">
+      <c r="A18" s="194">
         <v>8</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="258" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="258"/>
-      <c r="E18" s="261"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="275"/>
       <c r="F18" s="52"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -29626,11 +29625,11 @@
       <c r="BN18" s="60"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="210"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="262"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="269"/>
       <c r="F19" s="54"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -29694,17 +29693,17 @@
       <c r="BN19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="209">
+      <c r="A20" s="194">
         <v>9</v>
       </c>
       <c r="B20" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="251" t="s">
+      <c r="C20" s="270" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="252"/>
-      <c r="E20" s="266"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="268"/>
       <c r="F20" s="37"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -29768,11 +29767,11 @@
       <c r="BN20" s="61"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="210"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="80"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="267"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="274"/>
       <c r="F21" s="51"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -29836,15 +29835,15 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="209">
+      <c r="A22" s="194">
         <v>10</v>
       </c>
       <c r="B22" s="80"/>
-      <c r="C22" s="257" t="s">
+      <c r="C22" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="261"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="275"/>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -29908,11 +29907,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="210"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="267"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="274"/>
       <c r="F23" s="51"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -29976,15 +29975,15 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="209">
+      <c r="A24" s="194">
         <v>11</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="261"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="275"/>
       <c r="F24" s="52"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -30048,11 +30047,11 @@
       <c r="BN24" s="60"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="210"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="262"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="269"/>
       <c r="F25" s="54"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -30116,17 +30115,17 @@
       <c r="BN25" s="64"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="209">
+      <c r="A26" s="194">
         <v>12</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="263" t="s">
+      <c r="C26" s="277" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="264"/>
-      <c r="E26" s="265"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="281"/>
       <c r="F26" s="37"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -30191,11 +30190,11 @@
       <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="210"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="247"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="282"/>
       <c r="F27" s="51"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -30260,15 +30259,15 @@
       <c r="BO27" s="3"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="209">
+      <c r="A28" s="194">
         <v>13</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="243" t="s">
+      <c r="C28" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="244"/>
-      <c r="E28" s="247"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="51"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -30333,11 +30332,11 @@
       <c r="BO28" s="3"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="210"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="248"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="285"/>
       <c r="F29" s="54"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -30402,17 +30401,17 @@
       <c r="BO29" s="3"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="209">
+      <c r="A30" s="194">
         <v>14</v>
       </c>
-      <c r="B30" s="249" t="s">
+      <c r="B30" s="286" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="251" t="s">
+      <c r="C30" s="270" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="252"/>
-      <c r="E30" s="255"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="37"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -30477,11 +30476,11 @@
       <c r="BO30" s="3"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="210"/>
-      <c r="B31" s="250"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="254"/>
-      <c r="E31" s="256"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="38"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -30565,48 +30564,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
@@ -30614,6 +30571,48 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -30657,63 +30656,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="277" t="s">
+      <c r="C1" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="322" t="s">
+      <c r="D1" s="250"/>
+      <c r="E1" s="292" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="283" t="s">
+      <c r="F1" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="222">
+      <c r="G1" s="208">
         <v>45078</v>
       </c>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="223"/>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="223"/>
-      <c r="AJ1" s="227"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="209"/>
+      <c r="AJ1" s="218"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="284"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="46">
         <v>42156</v>
       </c>
@@ -30807,12 +30806,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="231"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="285"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="257"/>
       <c r="G3" s="48" t="s">
         <v>113</v>
       </c>
@@ -30906,20 +30905,20 @@
       <c r="AK3" s="45"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="312">
+      <c r="A4" s="300">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="301" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="315" t="s">
+      <c r="D4" s="302"/>
+      <c r="E4" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="317"/>
+      <c r="F4" s="305"/>
       <c r="G4" s="49"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -30948,20 +30947,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="307" t="s">
+      <c r="AI4" s="295" t="s">
         <v>121</v>
       </c>
-      <c r="AJ4" s="307" t="s">
+      <c r="AJ4" s="295" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="318"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="306"/>
       <c r="G5" s="50"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -30990,22 +30989,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="308"/>
-      <c r="AJ5" s="308"/>
+      <c r="AI5" s="296"/>
+      <c r="AJ5" s="296"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="209">
+      <c r="A6" s="194">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="258"/>
-      <c r="E6" s="310" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="275"/>
+      <c r="F6" s="262"/>
       <c r="G6" s="51"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -31034,16 +31033,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="308"/>
-      <c r="AJ6" s="308"/>
+      <c r="AI6" s="296"/>
+      <c r="AJ6" s="296"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="210"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="276"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="263"/>
       <c r="G7" s="52"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -31072,24 +31071,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="308"/>
-      <c r="AJ7" s="308"/>
+      <c r="AI7" s="296"/>
+      <c r="AJ7" s="296"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="289">
+      <c r="A8" s="307">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="271" t="s">
+      <c r="C8" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="272"/>
-      <c r="E8" s="319" t="s">
+      <c r="D8" s="265"/>
+      <c r="E8" s="309" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="266"/>
+      <c r="F8" s="268"/>
       <c r="G8" s="37"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -31118,16 +31117,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="308"/>
-      <c r="AJ8" s="308"/>
+      <c r="AI8" s="296"/>
+      <c r="AJ8" s="296"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="290"/>
+      <c r="A9" s="308"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="262"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="269"/>
       <c r="G9" s="53"/>
       <c r="H9" s="42"/>
       <c r="I9" s="43"/>
@@ -31156,24 +31155,24 @@
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
-      <c r="AI9" s="308"/>
-      <c r="AJ9" s="308"/>
+      <c r="AI9" s="296"/>
+      <c r="AJ9" s="296"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="297">
+      <c r="A10" s="311">
         <v>4</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="320" t="s">
+      <c r="C10" s="312" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="321"/>
-      <c r="E10" s="301" t="s">
+      <c r="D10" s="313"/>
+      <c r="E10" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="302"/>
+      <c r="F10" s="318"/>
       <c r="G10" s="50"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -31202,16 +31201,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="308"/>
-      <c r="AJ10" s="308"/>
+      <c r="AI10" s="296"/>
+      <c r="AJ10" s="296"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="290"/>
+      <c r="A11" s="308"/>
       <c r="B11" s="80"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="267"/>
+      <c r="C11" s="314"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="274"/>
       <c r="G11" s="50"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -31240,22 +31239,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="308"/>
-      <c r="AJ11" s="308"/>
+      <c r="AI11" s="296"/>
+      <c r="AJ11" s="296"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="289">
+      <c r="A12" s="307">
         <v>5</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="303" t="s">
+      <c r="C12" s="319" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="304"/>
-      <c r="E12" s="291" t="s">
+      <c r="D12" s="320"/>
+      <c r="E12" s="321" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="261"/>
+      <c r="F12" s="275"/>
       <c r="G12" s="51"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -31284,16 +31283,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="308"/>
-      <c r="AJ12" s="308"/>
+      <c r="AI12" s="296"/>
+      <c r="AJ12" s="296"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="290"/>
+      <c r="A13" s="308"/>
       <c r="B13" s="80"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="267"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="274"/>
       <c r="G13" s="51"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -31322,22 +31321,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="308"/>
-      <c r="AJ13" s="308"/>
+      <c r="AI13" s="296"/>
+      <c r="AJ13" s="296"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="289">
+      <c r="A14" s="307">
         <v>6</v>
       </c>
       <c r="B14" s="80"/>
-      <c r="C14" s="268" t="s">
+      <c r="C14" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="258"/>
-      <c r="E14" s="300" t="s">
+      <c r="D14" s="259"/>
+      <c r="E14" s="324" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="261"/>
+      <c r="F14" s="275"/>
       <c r="G14" s="51"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -31366,16 +31365,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="308"/>
-      <c r="AJ14" s="308"/>
+      <c r="AI14" s="296"/>
+      <c r="AJ14" s="296"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="297"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="302"/>
+      <c r="C15" s="322"/>
+      <c r="D15" s="323"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="318"/>
       <c r="G15" s="52"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -31404,24 +31403,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="308"/>
-      <c r="AJ15" s="308"/>
+      <c r="AI15" s="296"/>
+      <c r="AJ15" s="296"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="295">
+      <c r="A16" s="325">
         <v>7</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="252"/>
-      <c r="E16" s="294" t="s">
+      <c r="D16" s="271"/>
+      <c r="E16" s="326" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="266"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="37"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -31450,16 +31449,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="308"/>
-      <c r="AJ16" s="308"/>
+      <c r="AI16" s="296"/>
+      <c r="AJ16" s="296"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="295"/>
+      <c r="A17" s="325"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="267"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="274"/>
       <c r="G17" s="52"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -31488,22 +31487,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="308"/>
-      <c r="AJ17" s="308"/>
+      <c r="AI17" s="296"/>
+      <c r="AJ17" s="296"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="295">
+      <c r="A18" s="325">
         <v>7</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="258"/>
-      <c r="E18" s="291" t="s">
+      <c r="D18" s="259"/>
+      <c r="E18" s="321" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="261"/>
+      <c r="F18" s="275"/>
       <c r="G18" s="51"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -31532,16 +31531,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="308"/>
-      <c r="AJ18" s="308"/>
+      <c r="AI18" s="296"/>
+      <c r="AJ18" s="296"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="295"/>
+      <c r="A19" s="325"/>
       <c r="B19" s="80"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="292"/>
-      <c r="F19" s="267"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="274"/>
       <c r="G19" s="52"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -31570,22 +31569,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="308"/>
-      <c r="AJ19" s="308"/>
+      <c r="AI19" s="296"/>
+      <c r="AJ19" s="296"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="295">
+      <c r="A20" s="325">
         <v>8</v>
       </c>
       <c r="B20" s="80"/>
-      <c r="C20" s="268" t="s">
+      <c r="C20" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="258"/>
-      <c r="E20" s="291" t="s">
+      <c r="D20" s="259"/>
+      <c r="E20" s="321" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="261"/>
+      <c r="F20" s="275"/>
       <c r="G20" s="52"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -31614,16 +31613,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="308"/>
-      <c r="AJ20" s="308"/>
+      <c r="AI20" s="296"/>
+      <c r="AJ20" s="296"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="295"/>
+      <c r="A21" s="325"/>
       <c r="B21" s="81"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="262"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="310"/>
+      <c r="F21" s="269"/>
       <c r="G21" s="54"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -31652,24 +31651,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="308"/>
-      <c r="AJ21" s="308"/>
+      <c r="AI21" s="296"/>
+      <c r="AJ21" s="296"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="289">
+      <c r="A22" s="307">
         <v>9</v>
       </c>
       <c r="B22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="251" t="s">
+      <c r="C22" s="270" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="252"/>
-      <c r="E22" s="294" t="s">
+      <c r="D22" s="271"/>
+      <c r="E22" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="266"/>
+      <c r="F22" s="268"/>
       <c r="G22" s="37"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -31698,16 +31697,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="308"/>
-      <c r="AJ22" s="308"/>
+      <c r="AI22" s="296"/>
+      <c r="AJ22" s="296"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="290"/>
+      <c r="A23" s="308"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="292"/>
-      <c r="F23" s="267"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="317"/>
+      <c r="F23" s="274"/>
       <c r="G23" s="51"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -31736,22 +31735,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="308"/>
-      <c r="AJ23" s="308"/>
+      <c r="AI23" s="296"/>
+      <c r="AJ23" s="296"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="289">
+      <c r="A24" s="307">
         <v>10</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="291" t="s">
+      <c r="D24" s="259"/>
+      <c r="E24" s="321" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="261"/>
+      <c r="F24" s="275"/>
       <c r="G24" s="51"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -31780,16 +31779,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="308"/>
-      <c r="AJ24" s="308"/>
+      <c r="AI24" s="296"/>
+      <c r="AJ24" s="296"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="290"/>
+      <c r="A25" s="308"/>
       <c r="B25" s="80"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="267"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="317"/>
+      <c r="F25" s="274"/>
       <c r="G25" s="51"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -31818,22 +31817,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="308"/>
-      <c r="AJ25" s="308"/>
+      <c r="AI25" s="296"/>
+      <c r="AJ25" s="296"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="289">
+      <c r="A26" s="307">
         <v>12</v>
       </c>
       <c r="B26" s="80"/>
-      <c r="C26" s="257" t="s">
+      <c r="C26" s="276" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="258"/>
-      <c r="E26" s="291" t="s">
+      <c r="D26" s="259"/>
+      <c r="E26" s="321" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="261"/>
+      <c r="F26" s="275"/>
       <c r="G26" s="52"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -31862,16 +31861,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="308"/>
-      <c r="AJ26" s="308"/>
+      <c r="AI26" s="296"/>
+      <c r="AJ26" s="296"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="290"/>
+      <c r="A27" s="308"/>
       <c r="B27" s="81"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="292"/>
-      <c r="F27" s="262"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="269"/>
       <c r="G27" s="54"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -31900,24 +31899,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="308"/>
-      <c r="AJ27" s="308"/>
+      <c r="AI27" s="296"/>
+      <c r="AJ27" s="296"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="209">
+      <c r="A28" s="194">
         <v>13</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="263" t="s">
+      <c r="C28" s="277" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="264"/>
-      <c r="E28" s="293" t="s">
+      <c r="D28" s="278"/>
+      <c r="E28" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="265"/>
+      <c r="F28" s="281"/>
       <c r="G28" s="37"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -31946,17 +31945,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="308"/>
-      <c r="AJ28" s="308"/>
+      <c r="AI28" s="296"/>
+      <c r="AJ28" s="296"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="210"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="286"/>
-      <c r="F29" s="247"/>
+      <c r="C29" s="279"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="282"/>
       <c r="G29" s="51"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -31985,23 +31984,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="308"/>
-      <c r="AJ29" s="308"/>
+      <c r="AI29" s="296"/>
+      <c r="AJ29" s="296"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="209">
+      <c r="A30" s="194">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="243" t="s">
+      <c r="C30" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="244"/>
-      <c r="E30" s="286" t="s">
+      <c r="D30" s="280"/>
+      <c r="E30" s="328" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="247"/>
+      <c r="F30" s="282"/>
       <c r="G30" s="51"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -32030,17 +32029,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="308"/>
-      <c r="AJ30" s="308"/>
+      <c r="AI30" s="296"/>
+      <c r="AJ30" s="296"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="210"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="248"/>
+      <c r="C31" s="283"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="329"/>
+      <c r="F31" s="285"/>
       <c r="G31" s="54"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -32069,25 +32068,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="308"/>
-      <c r="AJ31" s="308"/>
+      <c r="AI31" s="296"/>
+      <c r="AJ31" s="296"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="209">
+      <c r="A32" s="194">
         <v>15</v>
       </c>
-      <c r="B32" s="249" t="s">
+      <c r="B32" s="286" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="251" t="s">
+      <c r="C32" s="270" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="252"/>
-      <c r="E32" s="249" t="s">
+      <c r="D32" s="271"/>
+      <c r="E32" s="286" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="255"/>
+      <c r="F32" s="290"/>
       <c r="G32" s="37"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -32116,17 +32115,17 @@
       <c r="AF32" s="39"/>
       <c r="AG32" s="39"/>
       <c r="AH32" s="39"/>
-      <c r="AI32" s="308"/>
-      <c r="AJ32" s="308"/>
+      <c r="AI32" s="296"/>
+      <c r="AJ32" s="296"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="288"/>
-      <c r="B33" s="250"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="256"/>
+      <c r="A33" s="330"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="291"/>
       <c r="G33" s="38"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -32155,8 +32154,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="309"/>
-      <c r="AJ33" s="309"/>
+      <c r="AI33" s="297"/>
+      <c r="AJ33" s="297"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -32177,12 +32176,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -32199,53 +32239,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
